--- a/trunk/1. Project management/12. Daily report/tong hop/sprint 4/AS_PM_DailyMeeting09-5.xlsx
+++ b/trunk/1. Project management/12. Daily report/tong hop/sprint 4/AS_PM_DailyMeeting09-5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="60">
   <si>
     <t>Chau Le</t>
   </si>
@@ -144,6 +144,75 @@
   <si>
     <t>Report date: 09/5/2014</t>
   </si>
+  <si>
+    <t>Implement - Login/log out on android</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Implement - View Q/A on android</t>
+  </si>
+  <si>
+    <t>On-going</t>
+  </si>
+  <si>
+    <t>Deploy-Android's DDS</t>
+  </si>
+  <si>
+    <t>Deploy-Android's DMS</t>
+  </si>
+  <si>
+    <t>Implement - Send mail on android</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Prototype Android DMS application</t>
+  </si>
+  <si>
+    <t>Test - Login/log out on android</t>
+  </si>
+  <si>
+    <t>Test - Show Q/A on android</t>
+  </si>
+  <si>
+    <t>Test - Search Q/A on Android</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Test - Send mail on android</t>
+  </si>
+  <si>
+    <t>Implement - Show Q/A on android</t>
+  </si>
+  <si>
+    <t>Web service - Save Q/A on android</t>
+  </si>
+  <si>
+    <t>Implement -Delete Q/A</t>
+  </si>
+  <si>
+    <t>Implement - Create question</t>
+  </si>
+  <si>
+    <t>Implement - Save Q/A on android</t>
+  </si>
+  <si>
+    <t>Web service - send mail on android</t>
+  </si>
+  <si>
+    <t>Medim</t>
+  </si>
+  <si>
+    <t>Implement - Search Q/A on Android</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -996,25 +1065,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1195,9 +1251,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,9 +1330,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,14 +1355,69 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,65 +1466,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,9 +1486,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3077,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3726,16 +3771,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3750,10 +3795,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -3765,10 +3810,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3789,17 +3834,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3844,10 +3889,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -3856,13 +3901,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="B10" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3871,13 +3926,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="B11" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="18" t="s">
         <v>0</v>
       </c>
@@ -3891,8 +3956,8 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3900,13 +3965,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -3936,19 +4001,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -3957,21 +4022,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="142"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3983,8 +4048,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3996,8 +4061,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -4009,8 +4074,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -4046,44 +4111,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -4113,19 +4178,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -4134,13 +4199,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4171,41 +4236,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4256,12 +4321,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -4275,15 +4343,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="173" priority="22" stopIfTrue="1" operator="equal">
@@ -4400,7 +4465,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5048,16 +5113,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5072,10 +5137,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -5087,10 +5152,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5111,17 +5176,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5166,10 +5231,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -5178,13 +5243,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="B10" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="18" t="s">
         <v>1</v>
       </c>
@@ -5193,13 +5268,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="18" t="s">
         <v>1</v>
       </c>
@@ -5208,11 +5293,21 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
       <c r="I12" s="18"/>
@@ -5222,13 +5317,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="67"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -5258,19 +5353,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -5282,10 +5377,10 @@
       <c r="B17" s="68"/>
       <c r="C17" s="69"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="142"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5318,8 +5413,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -5331,8 +5426,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5368,44 +5463,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5435,19 +5530,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -5456,13 +5551,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5493,41 +5588,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5578,12 +5673,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5594,15 +5692,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="149" priority="34" stopIfTrue="1" operator="equal">
@@ -5767,7 +5862,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6415,16 +6510,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6439,10 +6534,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -6454,10 +6549,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6478,17 +6573,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6533,10 +6628,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -6545,13 +6640,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="B10" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
@@ -6560,56 +6665,96 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41856</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41856</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41856</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41856</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>4</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="18"/>
+      <c r="B13" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="16">
+        <v>41856</v>
+      </c>
+      <c r="E13" s="16">
+        <v>41856</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="110">
+      <c r="A14" s="108">
         <v>6</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="113"/>
+      <c r="B14" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="99"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6630,19 +6775,19 @@
       <c r="A19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="137"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="138" t="s">
+      <c r="E19" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
       <c r="I19" s="39" t="s">
         <v>16</v>
       </c>
@@ -6651,21 +6796,21 @@
       <c r="A20" s="40">
         <v>1</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="142"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="21"/>
       <c r="E21" s="41"/>
       <c r="F21" s="42"/>
@@ -6677,34 +6822,34 @@
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>4</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43">
         <v>5</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="29"/>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
@@ -6740,44 +6885,44 @@
       <c r="A27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="155" t="s">
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="94"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="87"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48">
         <v>2</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="77"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -6807,19 +6952,19 @@
       <c r="A32" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="51" t="s">
         <v>16</v>
       </c>
@@ -6828,26 +6973,26 @@
       <c r="A33" s="13">
         <v>1</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="52"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>2</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
       <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6898,6 +7043,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G10:H10"/>
@@ -6911,11 +7061,6 @@
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="113" priority="25" stopIfTrue="1" operator="equal">
@@ -6928,17 +7073,6 @@
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
-    <cfRule type="cellIs" dxfId="110" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"On-hold"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"On-going"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I10:I14">
     <cfRule type="containsText" dxfId="107" priority="16" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
@@ -6999,7 +7133,7 @@
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F10:F14">
     <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
@@ -7014,7 +7148,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983049:WVN983052 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65545:F65548 JB65545:JB65548 SX65545:SX65548 ACT65545:ACT65548 AMP65545:AMP65548 AWL65545:AWL65548 BGH65545:BGH65548 BQD65545:BQD65548 BZZ65545:BZZ65548 CJV65545:CJV65548 CTR65545:CTR65548 DDN65545:DDN65548 DNJ65545:DNJ65548 DXF65545:DXF65548 EHB65545:EHB65548 EQX65545:EQX65548 FAT65545:FAT65548 FKP65545:FKP65548 FUL65545:FUL65548 GEH65545:GEH65548 GOD65545:GOD65548 GXZ65545:GXZ65548 HHV65545:HHV65548 HRR65545:HRR65548 IBN65545:IBN65548 ILJ65545:ILJ65548 IVF65545:IVF65548 JFB65545:JFB65548 JOX65545:JOX65548 JYT65545:JYT65548 KIP65545:KIP65548 KSL65545:KSL65548 LCH65545:LCH65548 LMD65545:LMD65548 LVZ65545:LVZ65548 MFV65545:MFV65548 MPR65545:MPR65548 MZN65545:MZN65548 NJJ65545:NJJ65548 NTF65545:NTF65548 ODB65545:ODB65548 OMX65545:OMX65548 OWT65545:OWT65548 PGP65545:PGP65548 PQL65545:PQL65548 QAH65545:QAH65548 QKD65545:QKD65548 QTZ65545:QTZ65548 RDV65545:RDV65548 RNR65545:RNR65548 RXN65545:RXN65548 SHJ65545:SHJ65548 SRF65545:SRF65548 TBB65545:TBB65548 TKX65545:TKX65548 TUT65545:TUT65548 UEP65545:UEP65548 UOL65545:UOL65548 UYH65545:UYH65548 VID65545:VID65548 VRZ65545:VRZ65548 WBV65545:WBV65548 WLR65545:WLR65548 WVN65545:WVN65548 F131081:F131084 JB131081:JB131084 SX131081:SX131084 ACT131081:ACT131084 AMP131081:AMP131084 AWL131081:AWL131084 BGH131081:BGH131084 BQD131081:BQD131084 BZZ131081:BZZ131084 CJV131081:CJV131084 CTR131081:CTR131084 DDN131081:DDN131084 DNJ131081:DNJ131084 DXF131081:DXF131084 EHB131081:EHB131084 EQX131081:EQX131084 FAT131081:FAT131084 FKP131081:FKP131084 FUL131081:FUL131084 GEH131081:GEH131084 GOD131081:GOD131084 GXZ131081:GXZ131084 HHV131081:HHV131084 HRR131081:HRR131084 IBN131081:IBN131084 ILJ131081:ILJ131084 IVF131081:IVF131084 JFB131081:JFB131084 JOX131081:JOX131084 JYT131081:JYT131084 KIP131081:KIP131084 KSL131081:KSL131084 LCH131081:LCH131084 LMD131081:LMD131084 LVZ131081:LVZ131084 MFV131081:MFV131084 MPR131081:MPR131084 MZN131081:MZN131084 NJJ131081:NJJ131084 NTF131081:NTF131084 ODB131081:ODB131084 OMX131081:OMX131084 OWT131081:OWT131084 PGP131081:PGP131084 PQL131081:PQL131084 QAH131081:QAH131084 QKD131081:QKD131084 QTZ131081:QTZ131084 RDV131081:RDV131084 RNR131081:RNR131084 RXN131081:RXN131084 SHJ131081:SHJ131084 SRF131081:SRF131084 TBB131081:TBB131084 TKX131081:TKX131084 TUT131081:TUT131084 UEP131081:UEP131084 UOL131081:UOL131084 UYH131081:UYH131084 VID131081:VID131084 VRZ131081:VRZ131084 WBV131081:WBV131084 WLR131081:WLR131084 WVN131081:WVN131084 F196617:F196620 JB196617:JB196620 SX196617:SX196620 ACT196617:ACT196620 AMP196617:AMP196620 AWL196617:AWL196620 BGH196617:BGH196620 BQD196617:BQD196620 BZZ196617:BZZ196620 CJV196617:CJV196620 CTR196617:CTR196620 DDN196617:DDN196620 DNJ196617:DNJ196620 DXF196617:DXF196620 EHB196617:EHB196620 EQX196617:EQX196620 FAT196617:FAT196620 FKP196617:FKP196620 FUL196617:FUL196620 GEH196617:GEH196620 GOD196617:GOD196620 GXZ196617:GXZ196620 HHV196617:HHV196620 HRR196617:HRR196620 IBN196617:IBN196620 ILJ196617:ILJ196620 IVF196617:IVF196620 JFB196617:JFB196620 JOX196617:JOX196620 JYT196617:JYT196620 KIP196617:KIP196620 KSL196617:KSL196620 LCH196617:LCH196620 LMD196617:LMD196620 LVZ196617:LVZ196620 MFV196617:MFV196620 MPR196617:MPR196620 MZN196617:MZN196620 NJJ196617:NJJ196620 NTF196617:NTF196620 ODB196617:ODB196620 OMX196617:OMX196620 OWT196617:OWT196620 PGP196617:PGP196620 PQL196617:PQL196620 QAH196617:QAH196620 QKD196617:QKD196620 QTZ196617:QTZ196620 RDV196617:RDV196620 RNR196617:RNR196620 RXN196617:RXN196620 SHJ196617:SHJ196620 SRF196617:SRF196620 TBB196617:TBB196620 TKX196617:TKX196620 TUT196617:TUT196620 UEP196617:UEP196620 UOL196617:UOL196620 UYH196617:UYH196620 VID196617:VID196620 VRZ196617:VRZ196620 WBV196617:WBV196620 WLR196617:WLR196620 WVN196617:WVN196620 F262153:F262156 JB262153:JB262156 SX262153:SX262156 ACT262153:ACT262156 AMP262153:AMP262156 AWL262153:AWL262156 BGH262153:BGH262156 BQD262153:BQD262156 BZZ262153:BZZ262156 CJV262153:CJV262156 CTR262153:CTR262156 DDN262153:DDN262156 DNJ262153:DNJ262156 DXF262153:DXF262156 EHB262153:EHB262156 EQX262153:EQX262156 FAT262153:FAT262156 FKP262153:FKP262156 FUL262153:FUL262156 GEH262153:GEH262156 GOD262153:GOD262156 GXZ262153:GXZ262156 HHV262153:HHV262156 HRR262153:HRR262156 IBN262153:IBN262156 ILJ262153:ILJ262156 IVF262153:IVF262156 JFB262153:JFB262156 JOX262153:JOX262156 JYT262153:JYT262156 KIP262153:KIP262156 KSL262153:KSL262156 LCH262153:LCH262156 LMD262153:LMD262156 LVZ262153:LVZ262156 MFV262153:MFV262156 MPR262153:MPR262156 MZN262153:MZN262156 NJJ262153:NJJ262156 NTF262153:NTF262156 ODB262153:ODB262156 OMX262153:OMX262156 OWT262153:OWT262156 PGP262153:PGP262156 PQL262153:PQL262156 QAH262153:QAH262156 QKD262153:QKD262156 QTZ262153:QTZ262156 RDV262153:RDV262156 RNR262153:RNR262156 RXN262153:RXN262156 SHJ262153:SHJ262156 SRF262153:SRF262156 TBB262153:TBB262156 TKX262153:TKX262156 TUT262153:TUT262156 UEP262153:UEP262156 UOL262153:UOL262156 UYH262153:UYH262156 VID262153:VID262156 VRZ262153:VRZ262156 WBV262153:WBV262156 WLR262153:WLR262156 WVN262153:WVN262156 F327689:F327692 JB327689:JB327692 SX327689:SX327692 ACT327689:ACT327692 AMP327689:AMP327692 AWL327689:AWL327692 BGH327689:BGH327692 BQD327689:BQD327692 BZZ327689:BZZ327692 CJV327689:CJV327692 CTR327689:CTR327692 DDN327689:DDN327692 DNJ327689:DNJ327692 DXF327689:DXF327692 EHB327689:EHB327692 EQX327689:EQX327692 FAT327689:FAT327692 FKP327689:FKP327692 FUL327689:FUL327692 GEH327689:GEH327692 GOD327689:GOD327692 GXZ327689:GXZ327692 HHV327689:HHV327692 HRR327689:HRR327692 IBN327689:IBN327692 ILJ327689:ILJ327692 IVF327689:IVF327692 JFB327689:JFB327692 JOX327689:JOX327692 JYT327689:JYT327692 KIP327689:KIP327692 KSL327689:KSL327692 LCH327689:LCH327692 LMD327689:LMD327692 LVZ327689:LVZ327692 MFV327689:MFV327692 MPR327689:MPR327692 MZN327689:MZN327692 NJJ327689:NJJ327692 NTF327689:NTF327692 ODB327689:ODB327692 OMX327689:OMX327692 OWT327689:OWT327692 PGP327689:PGP327692 PQL327689:PQL327692 QAH327689:QAH327692 QKD327689:QKD327692 QTZ327689:QTZ327692 RDV327689:RDV327692 RNR327689:RNR327692 RXN327689:RXN327692 SHJ327689:SHJ327692 SRF327689:SRF327692 TBB327689:TBB327692 TKX327689:TKX327692 TUT327689:TUT327692 UEP327689:UEP327692 UOL327689:UOL327692 UYH327689:UYH327692 VID327689:VID327692 VRZ327689:VRZ327692 WBV327689:WBV327692 WLR327689:WLR327692 WVN327689:WVN327692 F393225:F393228 JB393225:JB393228 SX393225:SX393228 ACT393225:ACT393228 AMP393225:AMP393228 AWL393225:AWL393228 BGH393225:BGH393228 BQD393225:BQD393228 BZZ393225:BZZ393228 CJV393225:CJV393228 CTR393225:CTR393228 DDN393225:DDN393228 DNJ393225:DNJ393228 DXF393225:DXF393228 EHB393225:EHB393228 EQX393225:EQX393228 FAT393225:FAT393228 FKP393225:FKP393228 FUL393225:FUL393228 GEH393225:GEH393228 GOD393225:GOD393228 GXZ393225:GXZ393228 HHV393225:HHV393228 HRR393225:HRR393228 IBN393225:IBN393228 ILJ393225:ILJ393228 IVF393225:IVF393228 JFB393225:JFB393228 JOX393225:JOX393228 JYT393225:JYT393228 KIP393225:KIP393228 KSL393225:KSL393228 LCH393225:LCH393228 LMD393225:LMD393228 LVZ393225:LVZ393228 MFV393225:MFV393228 MPR393225:MPR393228 MZN393225:MZN393228 NJJ393225:NJJ393228 NTF393225:NTF393228 ODB393225:ODB393228 OMX393225:OMX393228 OWT393225:OWT393228 PGP393225:PGP393228 PQL393225:PQL393228 QAH393225:QAH393228 QKD393225:QKD393228 QTZ393225:QTZ393228 RDV393225:RDV393228 RNR393225:RNR393228 RXN393225:RXN393228 SHJ393225:SHJ393228 SRF393225:SRF393228 TBB393225:TBB393228 TKX393225:TKX393228 TUT393225:TUT393228 UEP393225:UEP393228 UOL393225:UOL393228 UYH393225:UYH393228 VID393225:VID393228 VRZ393225:VRZ393228 WBV393225:WBV393228 WLR393225:WLR393228 WVN393225:WVN393228 F458761:F458764 JB458761:JB458764 SX458761:SX458764 ACT458761:ACT458764 AMP458761:AMP458764 AWL458761:AWL458764 BGH458761:BGH458764 BQD458761:BQD458764 BZZ458761:BZZ458764 CJV458761:CJV458764 CTR458761:CTR458764 DDN458761:DDN458764 DNJ458761:DNJ458764 DXF458761:DXF458764 EHB458761:EHB458764 EQX458761:EQX458764 FAT458761:FAT458764 FKP458761:FKP458764 FUL458761:FUL458764 GEH458761:GEH458764 GOD458761:GOD458764 GXZ458761:GXZ458764 HHV458761:HHV458764 HRR458761:HRR458764 IBN458761:IBN458764 ILJ458761:ILJ458764 IVF458761:IVF458764 JFB458761:JFB458764 JOX458761:JOX458764 JYT458761:JYT458764 KIP458761:KIP458764 KSL458761:KSL458764 LCH458761:LCH458764 LMD458761:LMD458764 LVZ458761:LVZ458764 MFV458761:MFV458764 MPR458761:MPR458764 MZN458761:MZN458764 NJJ458761:NJJ458764 NTF458761:NTF458764 ODB458761:ODB458764 OMX458761:OMX458764 OWT458761:OWT458764 PGP458761:PGP458764 PQL458761:PQL458764 QAH458761:QAH458764 QKD458761:QKD458764 QTZ458761:QTZ458764 RDV458761:RDV458764 RNR458761:RNR458764 RXN458761:RXN458764 SHJ458761:SHJ458764 SRF458761:SRF458764 TBB458761:TBB458764 TKX458761:TKX458764 TUT458761:TUT458764 UEP458761:UEP458764 UOL458761:UOL458764 UYH458761:UYH458764 VID458761:VID458764 VRZ458761:VRZ458764 WBV458761:WBV458764 WLR458761:WLR458764 WVN458761:WVN458764 F524297:F524300 JB524297:JB524300 SX524297:SX524300 ACT524297:ACT524300 AMP524297:AMP524300 AWL524297:AWL524300 BGH524297:BGH524300 BQD524297:BQD524300 BZZ524297:BZZ524300 CJV524297:CJV524300 CTR524297:CTR524300 DDN524297:DDN524300 DNJ524297:DNJ524300 DXF524297:DXF524300 EHB524297:EHB524300 EQX524297:EQX524300 FAT524297:FAT524300 FKP524297:FKP524300 FUL524297:FUL524300 GEH524297:GEH524300 GOD524297:GOD524300 GXZ524297:GXZ524300 HHV524297:HHV524300 HRR524297:HRR524300 IBN524297:IBN524300 ILJ524297:ILJ524300 IVF524297:IVF524300 JFB524297:JFB524300 JOX524297:JOX524300 JYT524297:JYT524300 KIP524297:KIP524300 KSL524297:KSL524300 LCH524297:LCH524300 LMD524297:LMD524300 LVZ524297:LVZ524300 MFV524297:MFV524300 MPR524297:MPR524300 MZN524297:MZN524300 NJJ524297:NJJ524300 NTF524297:NTF524300 ODB524297:ODB524300 OMX524297:OMX524300 OWT524297:OWT524300 PGP524297:PGP524300 PQL524297:PQL524300 QAH524297:QAH524300 QKD524297:QKD524300 QTZ524297:QTZ524300 RDV524297:RDV524300 RNR524297:RNR524300 RXN524297:RXN524300 SHJ524297:SHJ524300 SRF524297:SRF524300 TBB524297:TBB524300 TKX524297:TKX524300 TUT524297:TUT524300 UEP524297:UEP524300 UOL524297:UOL524300 UYH524297:UYH524300 VID524297:VID524300 VRZ524297:VRZ524300 WBV524297:WBV524300 WLR524297:WLR524300 WVN524297:WVN524300 F589833:F589836 JB589833:JB589836 SX589833:SX589836 ACT589833:ACT589836 AMP589833:AMP589836 AWL589833:AWL589836 BGH589833:BGH589836 BQD589833:BQD589836 BZZ589833:BZZ589836 CJV589833:CJV589836 CTR589833:CTR589836 DDN589833:DDN589836 DNJ589833:DNJ589836 DXF589833:DXF589836 EHB589833:EHB589836 EQX589833:EQX589836 FAT589833:FAT589836 FKP589833:FKP589836 FUL589833:FUL589836 GEH589833:GEH589836 GOD589833:GOD589836 GXZ589833:GXZ589836 HHV589833:HHV589836 HRR589833:HRR589836 IBN589833:IBN589836 ILJ589833:ILJ589836 IVF589833:IVF589836 JFB589833:JFB589836 JOX589833:JOX589836 JYT589833:JYT589836 KIP589833:KIP589836 KSL589833:KSL589836 LCH589833:LCH589836 LMD589833:LMD589836 LVZ589833:LVZ589836 MFV589833:MFV589836 MPR589833:MPR589836 MZN589833:MZN589836 NJJ589833:NJJ589836 NTF589833:NTF589836 ODB589833:ODB589836 OMX589833:OMX589836 OWT589833:OWT589836 PGP589833:PGP589836 PQL589833:PQL589836 QAH589833:QAH589836 QKD589833:QKD589836 QTZ589833:QTZ589836 RDV589833:RDV589836 RNR589833:RNR589836 RXN589833:RXN589836 SHJ589833:SHJ589836 SRF589833:SRF589836 TBB589833:TBB589836 TKX589833:TKX589836 TUT589833:TUT589836 UEP589833:UEP589836 UOL589833:UOL589836 UYH589833:UYH589836 VID589833:VID589836 VRZ589833:VRZ589836 WBV589833:WBV589836 WLR589833:WLR589836 WVN589833:WVN589836 F655369:F655372 JB655369:JB655372 SX655369:SX655372 ACT655369:ACT655372 AMP655369:AMP655372 AWL655369:AWL655372 BGH655369:BGH655372 BQD655369:BQD655372 BZZ655369:BZZ655372 CJV655369:CJV655372 CTR655369:CTR655372 DDN655369:DDN655372 DNJ655369:DNJ655372 DXF655369:DXF655372 EHB655369:EHB655372 EQX655369:EQX655372 FAT655369:FAT655372 FKP655369:FKP655372 FUL655369:FUL655372 GEH655369:GEH655372 GOD655369:GOD655372 GXZ655369:GXZ655372 HHV655369:HHV655372 HRR655369:HRR655372 IBN655369:IBN655372 ILJ655369:ILJ655372 IVF655369:IVF655372 JFB655369:JFB655372 JOX655369:JOX655372 JYT655369:JYT655372 KIP655369:KIP655372 KSL655369:KSL655372 LCH655369:LCH655372 LMD655369:LMD655372 LVZ655369:LVZ655372 MFV655369:MFV655372 MPR655369:MPR655372 MZN655369:MZN655372 NJJ655369:NJJ655372 NTF655369:NTF655372 ODB655369:ODB655372 OMX655369:OMX655372 OWT655369:OWT655372 PGP655369:PGP655372 PQL655369:PQL655372 QAH655369:QAH655372 QKD655369:QKD655372 QTZ655369:QTZ655372 RDV655369:RDV655372 RNR655369:RNR655372 RXN655369:RXN655372 SHJ655369:SHJ655372 SRF655369:SRF655372 TBB655369:TBB655372 TKX655369:TKX655372 TUT655369:TUT655372 UEP655369:UEP655372 UOL655369:UOL655372 UYH655369:UYH655372 VID655369:VID655372 VRZ655369:VRZ655372 WBV655369:WBV655372 WLR655369:WLR655372 WVN655369:WVN655372 F720905:F720908 JB720905:JB720908 SX720905:SX720908 ACT720905:ACT720908 AMP720905:AMP720908 AWL720905:AWL720908 BGH720905:BGH720908 BQD720905:BQD720908 BZZ720905:BZZ720908 CJV720905:CJV720908 CTR720905:CTR720908 DDN720905:DDN720908 DNJ720905:DNJ720908 DXF720905:DXF720908 EHB720905:EHB720908 EQX720905:EQX720908 FAT720905:FAT720908 FKP720905:FKP720908 FUL720905:FUL720908 GEH720905:GEH720908 GOD720905:GOD720908 GXZ720905:GXZ720908 HHV720905:HHV720908 HRR720905:HRR720908 IBN720905:IBN720908 ILJ720905:ILJ720908 IVF720905:IVF720908 JFB720905:JFB720908 JOX720905:JOX720908 JYT720905:JYT720908 KIP720905:KIP720908 KSL720905:KSL720908 LCH720905:LCH720908 LMD720905:LMD720908 LVZ720905:LVZ720908 MFV720905:MFV720908 MPR720905:MPR720908 MZN720905:MZN720908 NJJ720905:NJJ720908 NTF720905:NTF720908 ODB720905:ODB720908 OMX720905:OMX720908 OWT720905:OWT720908 PGP720905:PGP720908 PQL720905:PQL720908 QAH720905:QAH720908 QKD720905:QKD720908 QTZ720905:QTZ720908 RDV720905:RDV720908 RNR720905:RNR720908 RXN720905:RXN720908 SHJ720905:SHJ720908 SRF720905:SRF720908 TBB720905:TBB720908 TKX720905:TKX720908 TUT720905:TUT720908 UEP720905:UEP720908 UOL720905:UOL720908 UYH720905:UYH720908 VID720905:VID720908 VRZ720905:VRZ720908 WBV720905:WBV720908 WLR720905:WLR720908 WVN720905:WVN720908 F786441:F786444 JB786441:JB786444 SX786441:SX786444 ACT786441:ACT786444 AMP786441:AMP786444 AWL786441:AWL786444 BGH786441:BGH786444 BQD786441:BQD786444 BZZ786441:BZZ786444 CJV786441:CJV786444 CTR786441:CTR786444 DDN786441:DDN786444 DNJ786441:DNJ786444 DXF786441:DXF786444 EHB786441:EHB786444 EQX786441:EQX786444 FAT786441:FAT786444 FKP786441:FKP786444 FUL786441:FUL786444 GEH786441:GEH786444 GOD786441:GOD786444 GXZ786441:GXZ786444 HHV786441:HHV786444 HRR786441:HRR786444 IBN786441:IBN786444 ILJ786441:ILJ786444 IVF786441:IVF786444 JFB786441:JFB786444 JOX786441:JOX786444 JYT786441:JYT786444 KIP786441:KIP786444 KSL786441:KSL786444 LCH786441:LCH786444 LMD786441:LMD786444 LVZ786441:LVZ786444 MFV786441:MFV786444 MPR786441:MPR786444 MZN786441:MZN786444 NJJ786441:NJJ786444 NTF786441:NTF786444 ODB786441:ODB786444 OMX786441:OMX786444 OWT786441:OWT786444 PGP786441:PGP786444 PQL786441:PQL786444 QAH786441:QAH786444 QKD786441:QKD786444 QTZ786441:QTZ786444 RDV786441:RDV786444 RNR786441:RNR786444 RXN786441:RXN786444 SHJ786441:SHJ786444 SRF786441:SRF786444 TBB786441:TBB786444 TKX786441:TKX786444 TUT786441:TUT786444 UEP786441:UEP786444 UOL786441:UOL786444 UYH786441:UYH786444 VID786441:VID786444 VRZ786441:VRZ786444 WBV786441:WBV786444 WLR786441:WLR786444 WVN786441:WVN786444 F851977:F851980 JB851977:JB851980 SX851977:SX851980 ACT851977:ACT851980 AMP851977:AMP851980 AWL851977:AWL851980 BGH851977:BGH851980 BQD851977:BQD851980 BZZ851977:BZZ851980 CJV851977:CJV851980 CTR851977:CTR851980 DDN851977:DDN851980 DNJ851977:DNJ851980 DXF851977:DXF851980 EHB851977:EHB851980 EQX851977:EQX851980 FAT851977:FAT851980 FKP851977:FKP851980 FUL851977:FUL851980 GEH851977:GEH851980 GOD851977:GOD851980 GXZ851977:GXZ851980 HHV851977:HHV851980 HRR851977:HRR851980 IBN851977:IBN851980 ILJ851977:ILJ851980 IVF851977:IVF851980 JFB851977:JFB851980 JOX851977:JOX851980 JYT851977:JYT851980 KIP851977:KIP851980 KSL851977:KSL851980 LCH851977:LCH851980 LMD851977:LMD851980 LVZ851977:LVZ851980 MFV851977:MFV851980 MPR851977:MPR851980 MZN851977:MZN851980 NJJ851977:NJJ851980 NTF851977:NTF851980 ODB851977:ODB851980 OMX851977:OMX851980 OWT851977:OWT851980 PGP851977:PGP851980 PQL851977:PQL851980 QAH851977:QAH851980 QKD851977:QKD851980 QTZ851977:QTZ851980 RDV851977:RDV851980 RNR851977:RNR851980 RXN851977:RXN851980 SHJ851977:SHJ851980 SRF851977:SRF851980 TBB851977:TBB851980 TKX851977:TKX851980 TUT851977:TUT851980 UEP851977:UEP851980 UOL851977:UOL851980 UYH851977:UYH851980 VID851977:VID851980 VRZ851977:VRZ851980 WBV851977:WBV851980 WLR851977:WLR851980 WVN851977:WVN851980 F917513:F917516 JB917513:JB917516 SX917513:SX917516 ACT917513:ACT917516 AMP917513:AMP917516 AWL917513:AWL917516 BGH917513:BGH917516 BQD917513:BQD917516 BZZ917513:BZZ917516 CJV917513:CJV917516 CTR917513:CTR917516 DDN917513:DDN917516 DNJ917513:DNJ917516 DXF917513:DXF917516 EHB917513:EHB917516 EQX917513:EQX917516 FAT917513:FAT917516 FKP917513:FKP917516 FUL917513:FUL917516 GEH917513:GEH917516 GOD917513:GOD917516 GXZ917513:GXZ917516 HHV917513:HHV917516 HRR917513:HRR917516 IBN917513:IBN917516 ILJ917513:ILJ917516 IVF917513:IVF917516 JFB917513:JFB917516 JOX917513:JOX917516 JYT917513:JYT917516 KIP917513:KIP917516 KSL917513:KSL917516 LCH917513:LCH917516 LMD917513:LMD917516 LVZ917513:LVZ917516 MFV917513:MFV917516 MPR917513:MPR917516 MZN917513:MZN917516 NJJ917513:NJJ917516 NTF917513:NTF917516 ODB917513:ODB917516 OMX917513:OMX917516 OWT917513:OWT917516 PGP917513:PGP917516 PQL917513:PQL917516 QAH917513:QAH917516 QKD917513:QKD917516 QTZ917513:QTZ917516 RDV917513:RDV917516 RNR917513:RNR917516 RXN917513:RXN917516 SHJ917513:SHJ917516 SRF917513:SRF917516 TBB917513:TBB917516 TKX917513:TKX917516 TUT917513:TUT917516 UEP917513:UEP917516 UOL917513:UOL917516 UYH917513:UYH917516 VID917513:VID917516 VRZ917513:VRZ917516 WBV917513:WBV917516 WLR917513:WLR917516 WVN917513:WVN917516 F983049:F983052 JB983049:JB983052 SX983049:SX983052 ACT983049:ACT983052 AMP983049:AMP983052 AWL983049:AWL983052 BGH983049:BGH983052 BQD983049:BQD983052 BZZ983049:BZZ983052 CJV983049:CJV983052 CTR983049:CTR983052 DDN983049:DDN983052 DNJ983049:DNJ983052 DXF983049:DXF983052 EHB983049:EHB983052 EQX983049:EQX983052 FAT983049:FAT983052 FKP983049:FKP983052 FUL983049:FUL983052 GEH983049:GEH983052 GOD983049:GOD983052 GXZ983049:GXZ983052 HHV983049:HHV983052 HRR983049:HRR983052 IBN983049:IBN983052 ILJ983049:ILJ983052 IVF983049:IVF983052 JFB983049:JFB983052 JOX983049:JOX983052 JYT983049:JYT983052 KIP983049:KIP983052 KSL983049:KSL983052 LCH983049:LCH983052 LMD983049:LMD983052 LVZ983049:LVZ983052 MFV983049:MFV983052 MPR983049:MPR983052 MZN983049:MZN983052 NJJ983049:NJJ983052 NTF983049:NTF983052 ODB983049:ODB983052 OMX983049:OMX983052 OWT983049:OWT983052 PGP983049:PGP983052 PQL983049:PQL983052 QAH983049:QAH983052 QKD983049:QKD983052 QTZ983049:QTZ983052 RDV983049:RDV983052 RNR983049:RNR983052 RXN983049:RXN983052 SHJ983049:SHJ983052 SRF983049:SRF983052 TBB983049:TBB983052 TKX983049:TKX983052 TUT983049:TUT983052 UEP983049:UEP983052 UOL983049:UOL983052 UYH983049:UYH983052 VID983049:VID983052 VRZ983049:VRZ983052 WBV983049:WBV983052 WLR983049:WLR983052 F10:F14">
       <formula1>"On-hold, On-going, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983050:WVK983052 IY11:IY13 SU11:SU13 ACQ11:ACQ13 AMM11:AMM13 AWI11:AWI13 BGE11:BGE13 BQA11:BQA13 BZW11:BZW13 CJS11:CJS13 CTO11:CTO13 DDK11:DDK13 DNG11:DNG13 DXC11:DXC13 EGY11:EGY13 EQU11:EQU13 FAQ11:FAQ13 FKM11:FKM13 FUI11:FUI13 GEE11:GEE13 GOA11:GOA13 GXW11:GXW13 HHS11:HHS13 HRO11:HRO13 IBK11:IBK13 ILG11:ILG13 IVC11:IVC13 JEY11:JEY13 JOU11:JOU13 JYQ11:JYQ13 KIM11:KIM13 KSI11:KSI13 LCE11:LCE13 LMA11:LMA13 LVW11:LVW13 MFS11:MFS13 MPO11:MPO13 MZK11:MZK13 NJG11:NJG13 NTC11:NTC13 OCY11:OCY13 OMU11:OMU13 OWQ11:OWQ13 PGM11:PGM13 PQI11:PQI13 QAE11:QAE13 QKA11:QKA13 QTW11:QTW13 RDS11:RDS13 RNO11:RNO13 RXK11:RXK13 SHG11:SHG13 SRC11:SRC13 TAY11:TAY13 TKU11:TKU13 TUQ11:TUQ13 UEM11:UEM13 UOI11:UOI13 UYE11:UYE13 VIA11:VIA13 VRW11:VRW13 WBS11:WBS13 WLO11:WLO13 WVK11:WVK13 C65546:C65548 IY65546:IY65548 SU65546:SU65548 ACQ65546:ACQ65548 AMM65546:AMM65548 AWI65546:AWI65548 BGE65546:BGE65548 BQA65546:BQA65548 BZW65546:BZW65548 CJS65546:CJS65548 CTO65546:CTO65548 DDK65546:DDK65548 DNG65546:DNG65548 DXC65546:DXC65548 EGY65546:EGY65548 EQU65546:EQU65548 FAQ65546:FAQ65548 FKM65546:FKM65548 FUI65546:FUI65548 GEE65546:GEE65548 GOA65546:GOA65548 GXW65546:GXW65548 HHS65546:HHS65548 HRO65546:HRO65548 IBK65546:IBK65548 ILG65546:ILG65548 IVC65546:IVC65548 JEY65546:JEY65548 JOU65546:JOU65548 JYQ65546:JYQ65548 KIM65546:KIM65548 KSI65546:KSI65548 LCE65546:LCE65548 LMA65546:LMA65548 LVW65546:LVW65548 MFS65546:MFS65548 MPO65546:MPO65548 MZK65546:MZK65548 NJG65546:NJG65548 NTC65546:NTC65548 OCY65546:OCY65548 OMU65546:OMU65548 OWQ65546:OWQ65548 PGM65546:PGM65548 PQI65546:PQI65548 QAE65546:QAE65548 QKA65546:QKA65548 QTW65546:QTW65548 RDS65546:RDS65548 RNO65546:RNO65548 RXK65546:RXK65548 SHG65546:SHG65548 SRC65546:SRC65548 TAY65546:TAY65548 TKU65546:TKU65548 TUQ65546:TUQ65548 UEM65546:UEM65548 UOI65546:UOI65548 UYE65546:UYE65548 VIA65546:VIA65548 VRW65546:VRW65548 WBS65546:WBS65548 WLO65546:WLO65548 WVK65546:WVK65548 C131082:C131084 IY131082:IY131084 SU131082:SU131084 ACQ131082:ACQ131084 AMM131082:AMM131084 AWI131082:AWI131084 BGE131082:BGE131084 BQA131082:BQA131084 BZW131082:BZW131084 CJS131082:CJS131084 CTO131082:CTO131084 DDK131082:DDK131084 DNG131082:DNG131084 DXC131082:DXC131084 EGY131082:EGY131084 EQU131082:EQU131084 FAQ131082:FAQ131084 FKM131082:FKM131084 FUI131082:FUI131084 GEE131082:GEE131084 GOA131082:GOA131084 GXW131082:GXW131084 HHS131082:HHS131084 HRO131082:HRO131084 IBK131082:IBK131084 ILG131082:ILG131084 IVC131082:IVC131084 JEY131082:JEY131084 JOU131082:JOU131084 JYQ131082:JYQ131084 KIM131082:KIM131084 KSI131082:KSI131084 LCE131082:LCE131084 LMA131082:LMA131084 LVW131082:LVW131084 MFS131082:MFS131084 MPO131082:MPO131084 MZK131082:MZK131084 NJG131082:NJG131084 NTC131082:NTC131084 OCY131082:OCY131084 OMU131082:OMU131084 OWQ131082:OWQ131084 PGM131082:PGM131084 PQI131082:PQI131084 QAE131082:QAE131084 QKA131082:QKA131084 QTW131082:QTW131084 RDS131082:RDS131084 RNO131082:RNO131084 RXK131082:RXK131084 SHG131082:SHG131084 SRC131082:SRC131084 TAY131082:TAY131084 TKU131082:TKU131084 TUQ131082:TUQ131084 UEM131082:UEM131084 UOI131082:UOI131084 UYE131082:UYE131084 VIA131082:VIA131084 VRW131082:VRW131084 WBS131082:WBS131084 WLO131082:WLO131084 WVK131082:WVK131084 C196618:C196620 IY196618:IY196620 SU196618:SU196620 ACQ196618:ACQ196620 AMM196618:AMM196620 AWI196618:AWI196620 BGE196618:BGE196620 BQA196618:BQA196620 BZW196618:BZW196620 CJS196618:CJS196620 CTO196618:CTO196620 DDK196618:DDK196620 DNG196618:DNG196620 DXC196618:DXC196620 EGY196618:EGY196620 EQU196618:EQU196620 FAQ196618:FAQ196620 FKM196618:FKM196620 FUI196618:FUI196620 GEE196618:GEE196620 GOA196618:GOA196620 GXW196618:GXW196620 HHS196618:HHS196620 HRO196618:HRO196620 IBK196618:IBK196620 ILG196618:ILG196620 IVC196618:IVC196620 JEY196618:JEY196620 JOU196618:JOU196620 JYQ196618:JYQ196620 KIM196618:KIM196620 KSI196618:KSI196620 LCE196618:LCE196620 LMA196618:LMA196620 LVW196618:LVW196620 MFS196618:MFS196620 MPO196618:MPO196620 MZK196618:MZK196620 NJG196618:NJG196620 NTC196618:NTC196620 OCY196618:OCY196620 OMU196618:OMU196620 OWQ196618:OWQ196620 PGM196618:PGM196620 PQI196618:PQI196620 QAE196618:QAE196620 QKA196618:QKA196620 QTW196618:QTW196620 RDS196618:RDS196620 RNO196618:RNO196620 RXK196618:RXK196620 SHG196618:SHG196620 SRC196618:SRC196620 TAY196618:TAY196620 TKU196618:TKU196620 TUQ196618:TUQ196620 UEM196618:UEM196620 UOI196618:UOI196620 UYE196618:UYE196620 VIA196618:VIA196620 VRW196618:VRW196620 WBS196618:WBS196620 WLO196618:WLO196620 WVK196618:WVK196620 C262154:C262156 IY262154:IY262156 SU262154:SU262156 ACQ262154:ACQ262156 AMM262154:AMM262156 AWI262154:AWI262156 BGE262154:BGE262156 BQA262154:BQA262156 BZW262154:BZW262156 CJS262154:CJS262156 CTO262154:CTO262156 DDK262154:DDK262156 DNG262154:DNG262156 DXC262154:DXC262156 EGY262154:EGY262156 EQU262154:EQU262156 FAQ262154:FAQ262156 FKM262154:FKM262156 FUI262154:FUI262156 GEE262154:GEE262156 GOA262154:GOA262156 GXW262154:GXW262156 HHS262154:HHS262156 HRO262154:HRO262156 IBK262154:IBK262156 ILG262154:ILG262156 IVC262154:IVC262156 JEY262154:JEY262156 JOU262154:JOU262156 JYQ262154:JYQ262156 KIM262154:KIM262156 KSI262154:KSI262156 LCE262154:LCE262156 LMA262154:LMA262156 LVW262154:LVW262156 MFS262154:MFS262156 MPO262154:MPO262156 MZK262154:MZK262156 NJG262154:NJG262156 NTC262154:NTC262156 OCY262154:OCY262156 OMU262154:OMU262156 OWQ262154:OWQ262156 PGM262154:PGM262156 PQI262154:PQI262156 QAE262154:QAE262156 QKA262154:QKA262156 QTW262154:QTW262156 RDS262154:RDS262156 RNO262154:RNO262156 RXK262154:RXK262156 SHG262154:SHG262156 SRC262154:SRC262156 TAY262154:TAY262156 TKU262154:TKU262156 TUQ262154:TUQ262156 UEM262154:UEM262156 UOI262154:UOI262156 UYE262154:UYE262156 VIA262154:VIA262156 VRW262154:VRW262156 WBS262154:WBS262156 WLO262154:WLO262156 WVK262154:WVK262156 C327690:C327692 IY327690:IY327692 SU327690:SU327692 ACQ327690:ACQ327692 AMM327690:AMM327692 AWI327690:AWI327692 BGE327690:BGE327692 BQA327690:BQA327692 BZW327690:BZW327692 CJS327690:CJS327692 CTO327690:CTO327692 DDK327690:DDK327692 DNG327690:DNG327692 DXC327690:DXC327692 EGY327690:EGY327692 EQU327690:EQU327692 FAQ327690:FAQ327692 FKM327690:FKM327692 FUI327690:FUI327692 GEE327690:GEE327692 GOA327690:GOA327692 GXW327690:GXW327692 HHS327690:HHS327692 HRO327690:HRO327692 IBK327690:IBK327692 ILG327690:ILG327692 IVC327690:IVC327692 JEY327690:JEY327692 JOU327690:JOU327692 JYQ327690:JYQ327692 KIM327690:KIM327692 KSI327690:KSI327692 LCE327690:LCE327692 LMA327690:LMA327692 LVW327690:LVW327692 MFS327690:MFS327692 MPO327690:MPO327692 MZK327690:MZK327692 NJG327690:NJG327692 NTC327690:NTC327692 OCY327690:OCY327692 OMU327690:OMU327692 OWQ327690:OWQ327692 PGM327690:PGM327692 PQI327690:PQI327692 QAE327690:QAE327692 QKA327690:QKA327692 QTW327690:QTW327692 RDS327690:RDS327692 RNO327690:RNO327692 RXK327690:RXK327692 SHG327690:SHG327692 SRC327690:SRC327692 TAY327690:TAY327692 TKU327690:TKU327692 TUQ327690:TUQ327692 UEM327690:UEM327692 UOI327690:UOI327692 UYE327690:UYE327692 VIA327690:VIA327692 VRW327690:VRW327692 WBS327690:WBS327692 WLO327690:WLO327692 WVK327690:WVK327692 C393226:C393228 IY393226:IY393228 SU393226:SU393228 ACQ393226:ACQ393228 AMM393226:AMM393228 AWI393226:AWI393228 BGE393226:BGE393228 BQA393226:BQA393228 BZW393226:BZW393228 CJS393226:CJS393228 CTO393226:CTO393228 DDK393226:DDK393228 DNG393226:DNG393228 DXC393226:DXC393228 EGY393226:EGY393228 EQU393226:EQU393228 FAQ393226:FAQ393228 FKM393226:FKM393228 FUI393226:FUI393228 GEE393226:GEE393228 GOA393226:GOA393228 GXW393226:GXW393228 HHS393226:HHS393228 HRO393226:HRO393228 IBK393226:IBK393228 ILG393226:ILG393228 IVC393226:IVC393228 JEY393226:JEY393228 JOU393226:JOU393228 JYQ393226:JYQ393228 KIM393226:KIM393228 KSI393226:KSI393228 LCE393226:LCE393228 LMA393226:LMA393228 LVW393226:LVW393228 MFS393226:MFS393228 MPO393226:MPO393228 MZK393226:MZK393228 NJG393226:NJG393228 NTC393226:NTC393228 OCY393226:OCY393228 OMU393226:OMU393228 OWQ393226:OWQ393228 PGM393226:PGM393228 PQI393226:PQI393228 QAE393226:QAE393228 QKA393226:QKA393228 QTW393226:QTW393228 RDS393226:RDS393228 RNO393226:RNO393228 RXK393226:RXK393228 SHG393226:SHG393228 SRC393226:SRC393228 TAY393226:TAY393228 TKU393226:TKU393228 TUQ393226:TUQ393228 UEM393226:UEM393228 UOI393226:UOI393228 UYE393226:UYE393228 VIA393226:VIA393228 VRW393226:VRW393228 WBS393226:WBS393228 WLO393226:WLO393228 WVK393226:WVK393228 C458762:C458764 IY458762:IY458764 SU458762:SU458764 ACQ458762:ACQ458764 AMM458762:AMM458764 AWI458762:AWI458764 BGE458762:BGE458764 BQA458762:BQA458764 BZW458762:BZW458764 CJS458762:CJS458764 CTO458762:CTO458764 DDK458762:DDK458764 DNG458762:DNG458764 DXC458762:DXC458764 EGY458762:EGY458764 EQU458762:EQU458764 FAQ458762:FAQ458764 FKM458762:FKM458764 FUI458762:FUI458764 GEE458762:GEE458764 GOA458762:GOA458764 GXW458762:GXW458764 HHS458762:HHS458764 HRO458762:HRO458764 IBK458762:IBK458764 ILG458762:ILG458764 IVC458762:IVC458764 JEY458762:JEY458764 JOU458762:JOU458764 JYQ458762:JYQ458764 KIM458762:KIM458764 KSI458762:KSI458764 LCE458762:LCE458764 LMA458762:LMA458764 LVW458762:LVW458764 MFS458762:MFS458764 MPO458762:MPO458764 MZK458762:MZK458764 NJG458762:NJG458764 NTC458762:NTC458764 OCY458762:OCY458764 OMU458762:OMU458764 OWQ458762:OWQ458764 PGM458762:PGM458764 PQI458762:PQI458764 QAE458762:QAE458764 QKA458762:QKA458764 QTW458762:QTW458764 RDS458762:RDS458764 RNO458762:RNO458764 RXK458762:RXK458764 SHG458762:SHG458764 SRC458762:SRC458764 TAY458762:TAY458764 TKU458762:TKU458764 TUQ458762:TUQ458764 UEM458762:UEM458764 UOI458762:UOI458764 UYE458762:UYE458764 VIA458762:VIA458764 VRW458762:VRW458764 WBS458762:WBS458764 WLO458762:WLO458764 WVK458762:WVK458764 C524298:C524300 IY524298:IY524300 SU524298:SU524300 ACQ524298:ACQ524300 AMM524298:AMM524300 AWI524298:AWI524300 BGE524298:BGE524300 BQA524298:BQA524300 BZW524298:BZW524300 CJS524298:CJS524300 CTO524298:CTO524300 DDK524298:DDK524300 DNG524298:DNG524300 DXC524298:DXC524300 EGY524298:EGY524300 EQU524298:EQU524300 FAQ524298:FAQ524300 FKM524298:FKM524300 FUI524298:FUI524300 GEE524298:GEE524300 GOA524298:GOA524300 GXW524298:GXW524300 HHS524298:HHS524300 HRO524298:HRO524300 IBK524298:IBK524300 ILG524298:ILG524300 IVC524298:IVC524300 JEY524298:JEY524300 JOU524298:JOU524300 JYQ524298:JYQ524300 KIM524298:KIM524300 KSI524298:KSI524300 LCE524298:LCE524300 LMA524298:LMA524300 LVW524298:LVW524300 MFS524298:MFS524300 MPO524298:MPO524300 MZK524298:MZK524300 NJG524298:NJG524300 NTC524298:NTC524300 OCY524298:OCY524300 OMU524298:OMU524300 OWQ524298:OWQ524300 PGM524298:PGM524300 PQI524298:PQI524300 QAE524298:QAE524300 QKA524298:QKA524300 QTW524298:QTW524300 RDS524298:RDS524300 RNO524298:RNO524300 RXK524298:RXK524300 SHG524298:SHG524300 SRC524298:SRC524300 TAY524298:TAY524300 TKU524298:TKU524300 TUQ524298:TUQ524300 UEM524298:UEM524300 UOI524298:UOI524300 UYE524298:UYE524300 VIA524298:VIA524300 VRW524298:VRW524300 WBS524298:WBS524300 WLO524298:WLO524300 WVK524298:WVK524300 C589834:C589836 IY589834:IY589836 SU589834:SU589836 ACQ589834:ACQ589836 AMM589834:AMM589836 AWI589834:AWI589836 BGE589834:BGE589836 BQA589834:BQA589836 BZW589834:BZW589836 CJS589834:CJS589836 CTO589834:CTO589836 DDK589834:DDK589836 DNG589834:DNG589836 DXC589834:DXC589836 EGY589834:EGY589836 EQU589834:EQU589836 FAQ589834:FAQ589836 FKM589834:FKM589836 FUI589834:FUI589836 GEE589834:GEE589836 GOA589834:GOA589836 GXW589834:GXW589836 HHS589834:HHS589836 HRO589834:HRO589836 IBK589834:IBK589836 ILG589834:ILG589836 IVC589834:IVC589836 JEY589834:JEY589836 JOU589834:JOU589836 JYQ589834:JYQ589836 KIM589834:KIM589836 KSI589834:KSI589836 LCE589834:LCE589836 LMA589834:LMA589836 LVW589834:LVW589836 MFS589834:MFS589836 MPO589834:MPO589836 MZK589834:MZK589836 NJG589834:NJG589836 NTC589834:NTC589836 OCY589834:OCY589836 OMU589834:OMU589836 OWQ589834:OWQ589836 PGM589834:PGM589836 PQI589834:PQI589836 QAE589834:QAE589836 QKA589834:QKA589836 QTW589834:QTW589836 RDS589834:RDS589836 RNO589834:RNO589836 RXK589834:RXK589836 SHG589834:SHG589836 SRC589834:SRC589836 TAY589834:TAY589836 TKU589834:TKU589836 TUQ589834:TUQ589836 UEM589834:UEM589836 UOI589834:UOI589836 UYE589834:UYE589836 VIA589834:VIA589836 VRW589834:VRW589836 WBS589834:WBS589836 WLO589834:WLO589836 WVK589834:WVK589836 C655370:C655372 IY655370:IY655372 SU655370:SU655372 ACQ655370:ACQ655372 AMM655370:AMM655372 AWI655370:AWI655372 BGE655370:BGE655372 BQA655370:BQA655372 BZW655370:BZW655372 CJS655370:CJS655372 CTO655370:CTO655372 DDK655370:DDK655372 DNG655370:DNG655372 DXC655370:DXC655372 EGY655370:EGY655372 EQU655370:EQU655372 FAQ655370:FAQ655372 FKM655370:FKM655372 FUI655370:FUI655372 GEE655370:GEE655372 GOA655370:GOA655372 GXW655370:GXW655372 HHS655370:HHS655372 HRO655370:HRO655372 IBK655370:IBK655372 ILG655370:ILG655372 IVC655370:IVC655372 JEY655370:JEY655372 JOU655370:JOU655372 JYQ655370:JYQ655372 KIM655370:KIM655372 KSI655370:KSI655372 LCE655370:LCE655372 LMA655370:LMA655372 LVW655370:LVW655372 MFS655370:MFS655372 MPO655370:MPO655372 MZK655370:MZK655372 NJG655370:NJG655372 NTC655370:NTC655372 OCY655370:OCY655372 OMU655370:OMU655372 OWQ655370:OWQ655372 PGM655370:PGM655372 PQI655370:PQI655372 QAE655370:QAE655372 QKA655370:QKA655372 QTW655370:QTW655372 RDS655370:RDS655372 RNO655370:RNO655372 RXK655370:RXK655372 SHG655370:SHG655372 SRC655370:SRC655372 TAY655370:TAY655372 TKU655370:TKU655372 TUQ655370:TUQ655372 UEM655370:UEM655372 UOI655370:UOI655372 UYE655370:UYE655372 VIA655370:VIA655372 VRW655370:VRW655372 WBS655370:WBS655372 WLO655370:WLO655372 WVK655370:WVK655372 C720906:C720908 IY720906:IY720908 SU720906:SU720908 ACQ720906:ACQ720908 AMM720906:AMM720908 AWI720906:AWI720908 BGE720906:BGE720908 BQA720906:BQA720908 BZW720906:BZW720908 CJS720906:CJS720908 CTO720906:CTO720908 DDK720906:DDK720908 DNG720906:DNG720908 DXC720906:DXC720908 EGY720906:EGY720908 EQU720906:EQU720908 FAQ720906:FAQ720908 FKM720906:FKM720908 FUI720906:FUI720908 GEE720906:GEE720908 GOA720906:GOA720908 GXW720906:GXW720908 HHS720906:HHS720908 HRO720906:HRO720908 IBK720906:IBK720908 ILG720906:ILG720908 IVC720906:IVC720908 JEY720906:JEY720908 JOU720906:JOU720908 JYQ720906:JYQ720908 KIM720906:KIM720908 KSI720906:KSI720908 LCE720906:LCE720908 LMA720906:LMA720908 LVW720906:LVW720908 MFS720906:MFS720908 MPO720906:MPO720908 MZK720906:MZK720908 NJG720906:NJG720908 NTC720906:NTC720908 OCY720906:OCY720908 OMU720906:OMU720908 OWQ720906:OWQ720908 PGM720906:PGM720908 PQI720906:PQI720908 QAE720906:QAE720908 QKA720906:QKA720908 QTW720906:QTW720908 RDS720906:RDS720908 RNO720906:RNO720908 RXK720906:RXK720908 SHG720906:SHG720908 SRC720906:SRC720908 TAY720906:TAY720908 TKU720906:TKU720908 TUQ720906:TUQ720908 UEM720906:UEM720908 UOI720906:UOI720908 UYE720906:UYE720908 VIA720906:VIA720908 VRW720906:VRW720908 WBS720906:WBS720908 WLO720906:WLO720908 WVK720906:WVK720908 C786442:C786444 IY786442:IY786444 SU786442:SU786444 ACQ786442:ACQ786444 AMM786442:AMM786444 AWI786442:AWI786444 BGE786442:BGE786444 BQA786442:BQA786444 BZW786442:BZW786444 CJS786442:CJS786444 CTO786442:CTO786444 DDK786442:DDK786444 DNG786442:DNG786444 DXC786442:DXC786444 EGY786442:EGY786444 EQU786442:EQU786444 FAQ786442:FAQ786444 FKM786442:FKM786444 FUI786442:FUI786444 GEE786442:GEE786444 GOA786442:GOA786444 GXW786442:GXW786444 HHS786442:HHS786444 HRO786442:HRO786444 IBK786442:IBK786444 ILG786442:ILG786444 IVC786442:IVC786444 JEY786442:JEY786444 JOU786442:JOU786444 JYQ786442:JYQ786444 KIM786442:KIM786444 KSI786442:KSI786444 LCE786442:LCE786444 LMA786442:LMA786444 LVW786442:LVW786444 MFS786442:MFS786444 MPO786442:MPO786444 MZK786442:MZK786444 NJG786442:NJG786444 NTC786442:NTC786444 OCY786442:OCY786444 OMU786442:OMU786444 OWQ786442:OWQ786444 PGM786442:PGM786444 PQI786442:PQI786444 QAE786442:QAE786444 QKA786442:QKA786444 QTW786442:QTW786444 RDS786442:RDS786444 RNO786442:RNO786444 RXK786442:RXK786444 SHG786442:SHG786444 SRC786442:SRC786444 TAY786442:TAY786444 TKU786442:TKU786444 TUQ786442:TUQ786444 UEM786442:UEM786444 UOI786442:UOI786444 UYE786442:UYE786444 VIA786442:VIA786444 VRW786442:VRW786444 WBS786442:WBS786444 WLO786442:WLO786444 WVK786442:WVK786444 C851978:C851980 IY851978:IY851980 SU851978:SU851980 ACQ851978:ACQ851980 AMM851978:AMM851980 AWI851978:AWI851980 BGE851978:BGE851980 BQA851978:BQA851980 BZW851978:BZW851980 CJS851978:CJS851980 CTO851978:CTO851980 DDK851978:DDK851980 DNG851978:DNG851980 DXC851978:DXC851980 EGY851978:EGY851980 EQU851978:EQU851980 FAQ851978:FAQ851980 FKM851978:FKM851980 FUI851978:FUI851980 GEE851978:GEE851980 GOA851978:GOA851980 GXW851978:GXW851980 HHS851978:HHS851980 HRO851978:HRO851980 IBK851978:IBK851980 ILG851978:ILG851980 IVC851978:IVC851980 JEY851978:JEY851980 JOU851978:JOU851980 JYQ851978:JYQ851980 KIM851978:KIM851980 KSI851978:KSI851980 LCE851978:LCE851980 LMA851978:LMA851980 LVW851978:LVW851980 MFS851978:MFS851980 MPO851978:MPO851980 MZK851978:MZK851980 NJG851978:NJG851980 NTC851978:NTC851980 OCY851978:OCY851980 OMU851978:OMU851980 OWQ851978:OWQ851980 PGM851978:PGM851980 PQI851978:PQI851980 QAE851978:QAE851980 QKA851978:QKA851980 QTW851978:QTW851980 RDS851978:RDS851980 RNO851978:RNO851980 RXK851978:RXK851980 SHG851978:SHG851980 SRC851978:SRC851980 TAY851978:TAY851980 TKU851978:TKU851980 TUQ851978:TUQ851980 UEM851978:UEM851980 UOI851978:UOI851980 UYE851978:UYE851980 VIA851978:VIA851980 VRW851978:VRW851980 WBS851978:WBS851980 WLO851978:WLO851980 WVK851978:WVK851980 C917514:C917516 IY917514:IY917516 SU917514:SU917516 ACQ917514:ACQ917516 AMM917514:AMM917516 AWI917514:AWI917516 BGE917514:BGE917516 BQA917514:BQA917516 BZW917514:BZW917516 CJS917514:CJS917516 CTO917514:CTO917516 DDK917514:DDK917516 DNG917514:DNG917516 DXC917514:DXC917516 EGY917514:EGY917516 EQU917514:EQU917516 FAQ917514:FAQ917516 FKM917514:FKM917516 FUI917514:FUI917516 GEE917514:GEE917516 GOA917514:GOA917516 GXW917514:GXW917516 HHS917514:HHS917516 HRO917514:HRO917516 IBK917514:IBK917516 ILG917514:ILG917516 IVC917514:IVC917516 JEY917514:JEY917516 JOU917514:JOU917516 JYQ917514:JYQ917516 KIM917514:KIM917516 KSI917514:KSI917516 LCE917514:LCE917516 LMA917514:LMA917516 LVW917514:LVW917516 MFS917514:MFS917516 MPO917514:MPO917516 MZK917514:MZK917516 NJG917514:NJG917516 NTC917514:NTC917516 OCY917514:OCY917516 OMU917514:OMU917516 OWQ917514:OWQ917516 PGM917514:PGM917516 PQI917514:PQI917516 QAE917514:QAE917516 QKA917514:QKA917516 QTW917514:QTW917516 RDS917514:RDS917516 RNO917514:RNO917516 RXK917514:RXK917516 SHG917514:SHG917516 SRC917514:SRC917516 TAY917514:TAY917516 TKU917514:TKU917516 TUQ917514:TUQ917516 UEM917514:UEM917516 UOI917514:UOI917516 UYE917514:UYE917516 VIA917514:VIA917516 VRW917514:VRW917516 WBS917514:WBS917516 WLO917514:WLO917516 WVK917514:WVK917516 C983050:C983052 IY983050:IY983052 SU983050:SU983052 ACQ983050:ACQ983052 AMM983050:AMM983052 AWI983050:AWI983052 BGE983050:BGE983052 BQA983050:BQA983052 BZW983050:BZW983052 CJS983050:CJS983052 CTO983050:CTO983052 DDK983050:DDK983052 DNG983050:DNG983052 DXC983050:DXC983052 EGY983050:EGY983052 EQU983050:EQU983052 FAQ983050:FAQ983052 FKM983050:FKM983052 FUI983050:FUI983052 GEE983050:GEE983052 GOA983050:GOA983052 GXW983050:GXW983052 HHS983050:HHS983052 HRO983050:HRO983052 IBK983050:IBK983052 ILG983050:ILG983052 IVC983050:IVC983052 JEY983050:JEY983052 JOU983050:JOU983052 JYQ983050:JYQ983052 KIM983050:KIM983052 KSI983050:KSI983052 LCE983050:LCE983052 LMA983050:LMA983052 LVW983050:LVW983052 MFS983050:MFS983052 MPO983050:MPO983052 MZK983050:MZK983052 NJG983050:NJG983052 NTC983050:NTC983052 OCY983050:OCY983052 OMU983050:OMU983052 OWQ983050:OWQ983052 PGM983050:PGM983052 PQI983050:PQI983052 QAE983050:QAE983052 QKA983050:QKA983052 QTW983050:QTW983052 RDS983050:RDS983052 RNO983050:RNO983052 RXK983050:RXK983052 SHG983050:SHG983052 SRC983050:SRC983052 TAY983050:TAY983052 TKU983050:TKU983052 TUQ983050:TUQ983052 UEM983050:UEM983052 UOI983050:UOI983052 UYE983050:UYE983052 VIA983050:VIA983052 VRW983050:VRW983052 WBS983050:WBS983052 WLO983050:WLO983052 C10:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983050:WVK983052 IY11:IY13 SU11:SU13 ACQ11:ACQ13 AMM11:AMM13 AWI11:AWI13 BGE11:BGE13 BQA11:BQA13 BZW11:BZW13 CJS11:CJS13 CTO11:CTO13 DDK11:DDK13 DNG11:DNG13 DXC11:DXC13 EGY11:EGY13 EQU11:EQU13 FAQ11:FAQ13 FKM11:FKM13 FUI11:FUI13 GEE11:GEE13 GOA11:GOA13 GXW11:GXW13 HHS11:HHS13 HRO11:HRO13 IBK11:IBK13 ILG11:ILG13 IVC11:IVC13 JEY11:JEY13 JOU11:JOU13 JYQ11:JYQ13 KIM11:KIM13 KSI11:KSI13 LCE11:LCE13 LMA11:LMA13 LVW11:LVW13 MFS11:MFS13 MPO11:MPO13 MZK11:MZK13 NJG11:NJG13 NTC11:NTC13 OCY11:OCY13 OMU11:OMU13 OWQ11:OWQ13 PGM11:PGM13 PQI11:PQI13 QAE11:QAE13 QKA11:QKA13 QTW11:QTW13 RDS11:RDS13 RNO11:RNO13 RXK11:RXK13 SHG11:SHG13 SRC11:SRC13 TAY11:TAY13 TKU11:TKU13 TUQ11:TUQ13 UEM11:UEM13 UOI11:UOI13 UYE11:UYE13 VIA11:VIA13 VRW11:VRW13 WBS11:WBS13 WLO11:WLO13 WVK11:WVK13 C65546:C65548 IY65546:IY65548 SU65546:SU65548 ACQ65546:ACQ65548 AMM65546:AMM65548 AWI65546:AWI65548 BGE65546:BGE65548 BQA65546:BQA65548 BZW65546:BZW65548 CJS65546:CJS65548 CTO65546:CTO65548 DDK65546:DDK65548 DNG65546:DNG65548 DXC65546:DXC65548 EGY65546:EGY65548 EQU65546:EQU65548 FAQ65546:FAQ65548 FKM65546:FKM65548 FUI65546:FUI65548 GEE65546:GEE65548 GOA65546:GOA65548 GXW65546:GXW65548 HHS65546:HHS65548 HRO65546:HRO65548 IBK65546:IBK65548 ILG65546:ILG65548 IVC65546:IVC65548 JEY65546:JEY65548 JOU65546:JOU65548 JYQ65546:JYQ65548 KIM65546:KIM65548 KSI65546:KSI65548 LCE65546:LCE65548 LMA65546:LMA65548 LVW65546:LVW65548 MFS65546:MFS65548 MPO65546:MPO65548 MZK65546:MZK65548 NJG65546:NJG65548 NTC65546:NTC65548 OCY65546:OCY65548 OMU65546:OMU65548 OWQ65546:OWQ65548 PGM65546:PGM65548 PQI65546:PQI65548 QAE65546:QAE65548 QKA65546:QKA65548 QTW65546:QTW65548 RDS65546:RDS65548 RNO65546:RNO65548 RXK65546:RXK65548 SHG65546:SHG65548 SRC65546:SRC65548 TAY65546:TAY65548 TKU65546:TKU65548 TUQ65546:TUQ65548 UEM65546:UEM65548 UOI65546:UOI65548 UYE65546:UYE65548 VIA65546:VIA65548 VRW65546:VRW65548 WBS65546:WBS65548 WLO65546:WLO65548 WVK65546:WVK65548 C131082:C131084 IY131082:IY131084 SU131082:SU131084 ACQ131082:ACQ131084 AMM131082:AMM131084 AWI131082:AWI131084 BGE131082:BGE131084 BQA131082:BQA131084 BZW131082:BZW131084 CJS131082:CJS131084 CTO131082:CTO131084 DDK131082:DDK131084 DNG131082:DNG131084 DXC131082:DXC131084 EGY131082:EGY131084 EQU131082:EQU131084 FAQ131082:FAQ131084 FKM131082:FKM131084 FUI131082:FUI131084 GEE131082:GEE131084 GOA131082:GOA131084 GXW131082:GXW131084 HHS131082:HHS131084 HRO131082:HRO131084 IBK131082:IBK131084 ILG131082:ILG131084 IVC131082:IVC131084 JEY131082:JEY131084 JOU131082:JOU131084 JYQ131082:JYQ131084 KIM131082:KIM131084 KSI131082:KSI131084 LCE131082:LCE131084 LMA131082:LMA131084 LVW131082:LVW131084 MFS131082:MFS131084 MPO131082:MPO131084 MZK131082:MZK131084 NJG131082:NJG131084 NTC131082:NTC131084 OCY131082:OCY131084 OMU131082:OMU131084 OWQ131082:OWQ131084 PGM131082:PGM131084 PQI131082:PQI131084 QAE131082:QAE131084 QKA131082:QKA131084 QTW131082:QTW131084 RDS131082:RDS131084 RNO131082:RNO131084 RXK131082:RXK131084 SHG131082:SHG131084 SRC131082:SRC131084 TAY131082:TAY131084 TKU131082:TKU131084 TUQ131082:TUQ131084 UEM131082:UEM131084 UOI131082:UOI131084 UYE131082:UYE131084 VIA131082:VIA131084 VRW131082:VRW131084 WBS131082:WBS131084 WLO131082:WLO131084 WVK131082:WVK131084 C196618:C196620 IY196618:IY196620 SU196618:SU196620 ACQ196618:ACQ196620 AMM196618:AMM196620 AWI196618:AWI196620 BGE196618:BGE196620 BQA196618:BQA196620 BZW196618:BZW196620 CJS196618:CJS196620 CTO196618:CTO196620 DDK196618:DDK196620 DNG196618:DNG196620 DXC196618:DXC196620 EGY196618:EGY196620 EQU196618:EQU196620 FAQ196618:FAQ196620 FKM196618:FKM196620 FUI196618:FUI196620 GEE196618:GEE196620 GOA196618:GOA196620 GXW196618:GXW196620 HHS196618:HHS196620 HRO196618:HRO196620 IBK196618:IBK196620 ILG196618:ILG196620 IVC196618:IVC196620 JEY196618:JEY196620 JOU196618:JOU196620 JYQ196618:JYQ196620 KIM196618:KIM196620 KSI196618:KSI196620 LCE196618:LCE196620 LMA196618:LMA196620 LVW196618:LVW196620 MFS196618:MFS196620 MPO196618:MPO196620 MZK196618:MZK196620 NJG196618:NJG196620 NTC196618:NTC196620 OCY196618:OCY196620 OMU196618:OMU196620 OWQ196618:OWQ196620 PGM196618:PGM196620 PQI196618:PQI196620 QAE196618:QAE196620 QKA196618:QKA196620 QTW196618:QTW196620 RDS196618:RDS196620 RNO196618:RNO196620 RXK196618:RXK196620 SHG196618:SHG196620 SRC196618:SRC196620 TAY196618:TAY196620 TKU196618:TKU196620 TUQ196618:TUQ196620 UEM196618:UEM196620 UOI196618:UOI196620 UYE196618:UYE196620 VIA196618:VIA196620 VRW196618:VRW196620 WBS196618:WBS196620 WLO196618:WLO196620 WVK196618:WVK196620 C262154:C262156 IY262154:IY262156 SU262154:SU262156 ACQ262154:ACQ262156 AMM262154:AMM262156 AWI262154:AWI262156 BGE262154:BGE262156 BQA262154:BQA262156 BZW262154:BZW262156 CJS262154:CJS262156 CTO262154:CTO262156 DDK262154:DDK262156 DNG262154:DNG262156 DXC262154:DXC262156 EGY262154:EGY262156 EQU262154:EQU262156 FAQ262154:FAQ262156 FKM262154:FKM262156 FUI262154:FUI262156 GEE262154:GEE262156 GOA262154:GOA262156 GXW262154:GXW262156 HHS262154:HHS262156 HRO262154:HRO262156 IBK262154:IBK262156 ILG262154:ILG262156 IVC262154:IVC262156 JEY262154:JEY262156 JOU262154:JOU262156 JYQ262154:JYQ262156 KIM262154:KIM262156 KSI262154:KSI262156 LCE262154:LCE262156 LMA262154:LMA262156 LVW262154:LVW262156 MFS262154:MFS262156 MPO262154:MPO262156 MZK262154:MZK262156 NJG262154:NJG262156 NTC262154:NTC262156 OCY262154:OCY262156 OMU262154:OMU262156 OWQ262154:OWQ262156 PGM262154:PGM262156 PQI262154:PQI262156 QAE262154:QAE262156 QKA262154:QKA262156 QTW262154:QTW262156 RDS262154:RDS262156 RNO262154:RNO262156 RXK262154:RXK262156 SHG262154:SHG262156 SRC262154:SRC262156 TAY262154:TAY262156 TKU262154:TKU262156 TUQ262154:TUQ262156 UEM262154:UEM262156 UOI262154:UOI262156 UYE262154:UYE262156 VIA262154:VIA262156 VRW262154:VRW262156 WBS262154:WBS262156 WLO262154:WLO262156 WVK262154:WVK262156 C327690:C327692 IY327690:IY327692 SU327690:SU327692 ACQ327690:ACQ327692 AMM327690:AMM327692 AWI327690:AWI327692 BGE327690:BGE327692 BQA327690:BQA327692 BZW327690:BZW327692 CJS327690:CJS327692 CTO327690:CTO327692 DDK327690:DDK327692 DNG327690:DNG327692 DXC327690:DXC327692 EGY327690:EGY327692 EQU327690:EQU327692 FAQ327690:FAQ327692 FKM327690:FKM327692 FUI327690:FUI327692 GEE327690:GEE327692 GOA327690:GOA327692 GXW327690:GXW327692 HHS327690:HHS327692 HRO327690:HRO327692 IBK327690:IBK327692 ILG327690:ILG327692 IVC327690:IVC327692 JEY327690:JEY327692 JOU327690:JOU327692 JYQ327690:JYQ327692 KIM327690:KIM327692 KSI327690:KSI327692 LCE327690:LCE327692 LMA327690:LMA327692 LVW327690:LVW327692 MFS327690:MFS327692 MPO327690:MPO327692 MZK327690:MZK327692 NJG327690:NJG327692 NTC327690:NTC327692 OCY327690:OCY327692 OMU327690:OMU327692 OWQ327690:OWQ327692 PGM327690:PGM327692 PQI327690:PQI327692 QAE327690:QAE327692 QKA327690:QKA327692 QTW327690:QTW327692 RDS327690:RDS327692 RNO327690:RNO327692 RXK327690:RXK327692 SHG327690:SHG327692 SRC327690:SRC327692 TAY327690:TAY327692 TKU327690:TKU327692 TUQ327690:TUQ327692 UEM327690:UEM327692 UOI327690:UOI327692 UYE327690:UYE327692 VIA327690:VIA327692 VRW327690:VRW327692 WBS327690:WBS327692 WLO327690:WLO327692 WVK327690:WVK327692 C393226:C393228 IY393226:IY393228 SU393226:SU393228 ACQ393226:ACQ393228 AMM393226:AMM393228 AWI393226:AWI393228 BGE393226:BGE393228 BQA393226:BQA393228 BZW393226:BZW393228 CJS393226:CJS393228 CTO393226:CTO393228 DDK393226:DDK393228 DNG393226:DNG393228 DXC393226:DXC393228 EGY393226:EGY393228 EQU393226:EQU393228 FAQ393226:FAQ393228 FKM393226:FKM393228 FUI393226:FUI393228 GEE393226:GEE393228 GOA393226:GOA393228 GXW393226:GXW393228 HHS393226:HHS393228 HRO393226:HRO393228 IBK393226:IBK393228 ILG393226:ILG393228 IVC393226:IVC393228 JEY393226:JEY393228 JOU393226:JOU393228 JYQ393226:JYQ393228 KIM393226:KIM393228 KSI393226:KSI393228 LCE393226:LCE393228 LMA393226:LMA393228 LVW393226:LVW393228 MFS393226:MFS393228 MPO393226:MPO393228 MZK393226:MZK393228 NJG393226:NJG393228 NTC393226:NTC393228 OCY393226:OCY393228 OMU393226:OMU393228 OWQ393226:OWQ393228 PGM393226:PGM393228 PQI393226:PQI393228 QAE393226:QAE393228 QKA393226:QKA393228 QTW393226:QTW393228 RDS393226:RDS393228 RNO393226:RNO393228 RXK393226:RXK393228 SHG393226:SHG393228 SRC393226:SRC393228 TAY393226:TAY393228 TKU393226:TKU393228 TUQ393226:TUQ393228 UEM393226:UEM393228 UOI393226:UOI393228 UYE393226:UYE393228 VIA393226:VIA393228 VRW393226:VRW393228 WBS393226:WBS393228 WLO393226:WLO393228 WVK393226:WVK393228 C458762:C458764 IY458762:IY458764 SU458762:SU458764 ACQ458762:ACQ458764 AMM458762:AMM458764 AWI458762:AWI458764 BGE458762:BGE458764 BQA458762:BQA458764 BZW458762:BZW458764 CJS458762:CJS458764 CTO458762:CTO458764 DDK458762:DDK458764 DNG458762:DNG458764 DXC458762:DXC458764 EGY458762:EGY458764 EQU458762:EQU458764 FAQ458762:FAQ458764 FKM458762:FKM458764 FUI458762:FUI458764 GEE458762:GEE458764 GOA458762:GOA458764 GXW458762:GXW458764 HHS458762:HHS458764 HRO458762:HRO458764 IBK458762:IBK458764 ILG458762:ILG458764 IVC458762:IVC458764 JEY458762:JEY458764 JOU458762:JOU458764 JYQ458762:JYQ458764 KIM458762:KIM458764 KSI458762:KSI458764 LCE458762:LCE458764 LMA458762:LMA458764 LVW458762:LVW458764 MFS458762:MFS458764 MPO458762:MPO458764 MZK458762:MZK458764 NJG458762:NJG458764 NTC458762:NTC458764 OCY458762:OCY458764 OMU458762:OMU458764 OWQ458762:OWQ458764 PGM458762:PGM458764 PQI458762:PQI458764 QAE458762:QAE458764 QKA458762:QKA458764 QTW458762:QTW458764 RDS458762:RDS458764 RNO458762:RNO458764 RXK458762:RXK458764 SHG458762:SHG458764 SRC458762:SRC458764 TAY458762:TAY458764 TKU458762:TKU458764 TUQ458762:TUQ458764 UEM458762:UEM458764 UOI458762:UOI458764 UYE458762:UYE458764 VIA458762:VIA458764 VRW458762:VRW458764 WBS458762:WBS458764 WLO458762:WLO458764 WVK458762:WVK458764 C524298:C524300 IY524298:IY524300 SU524298:SU524300 ACQ524298:ACQ524300 AMM524298:AMM524300 AWI524298:AWI524300 BGE524298:BGE524300 BQA524298:BQA524300 BZW524298:BZW524300 CJS524298:CJS524300 CTO524298:CTO524300 DDK524298:DDK524300 DNG524298:DNG524300 DXC524298:DXC524300 EGY524298:EGY524300 EQU524298:EQU524300 FAQ524298:FAQ524300 FKM524298:FKM524300 FUI524298:FUI524300 GEE524298:GEE524300 GOA524298:GOA524300 GXW524298:GXW524300 HHS524298:HHS524300 HRO524298:HRO524300 IBK524298:IBK524300 ILG524298:ILG524300 IVC524298:IVC524300 JEY524298:JEY524300 JOU524298:JOU524300 JYQ524298:JYQ524300 KIM524298:KIM524300 KSI524298:KSI524300 LCE524298:LCE524300 LMA524298:LMA524300 LVW524298:LVW524300 MFS524298:MFS524300 MPO524298:MPO524300 MZK524298:MZK524300 NJG524298:NJG524300 NTC524298:NTC524300 OCY524298:OCY524300 OMU524298:OMU524300 OWQ524298:OWQ524300 PGM524298:PGM524300 PQI524298:PQI524300 QAE524298:QAE524300 QKA524298:QKA524300 QTW524298:QTW524300 RDS524298:RDS524300 RNO524298:RNO524300 RXK524298:RXK524300 SHG524298:SHG524300 SRC524298:SRC524300 TAY524298:TAY524300 TKU524298:TKU524300 TUQ524298:TUQ524300 UEM524298:UEM524300 UOI524298:UOI524300 UYE524298:UYE524300 VIA524298:VIA524300 VRW524298:VRW524300 WBS524298:WBS524300 WLO524298:WLO524300 WVK524298:WVK524300 C589834:C589836 IY589834:IY589836 SU589834:SU589836 ACQ589834:ACQ589836 AMM589834:AMM589836 AWI589834:AWI589836 BGE589834:BGE589836 BQA589834:BQA589836 BZW589834:BZW589836 CJS589834:CJS589836 CTO589834:CTO589836 DDK589834:DDK589836 DNG589834:DNG589836 DXC589834:DXC589836 EGY589834:EGY589836 EQU589834:EQU589836 FAQ589834:FAQ589836 FKM589834:FKM589836 FUI589834:FUI589836 GEE589834:GEE589836 GOA589834:GOA589836 GXW589834:GXW589836 HHS589834:HHS589836 HRO589834:HRO589836 IBK589834:IBK589836 ILG589834:ILG589836 IVC589834:IVC589836 JEY589834:JEY589836 JOU589834:JOU589836 JYQ589834:JYQ589836 KIM589834:KIM589836 KSI589834:KSI589836 LCE589834:LCE589836 LMA589834:LMA589836 LVW589834:LVW589836 MFS589834:MFS589836 MPO589834:MPO589836 MZK589834:MZK589836 NJG589834:NJG589836 NTC589834:NTC589836 OCY589834:OCY589836 OMU589834:OMU589836 OWQ589834:OWQ589836 PGM589834:PGM589836 PQI589834:PQI589836 QAE589834:QAE589836 QKA589834:QKA589836 QTW589834:QTW589836 RDS589834:RDS589836 RNO589834:RNO589836 RXK589834:RXK589836 SHG589834:SHG589836 SRC589834:SRC589836 TAY589834:TAY589836 TKU589834:TKU589836 TUQ589834:TUQ589836 UEM589834:UEM589836 UOI589834:UOI589836 UYE589834:UYE589836 VIA589834:VIA589836 VRW589834:VRW589836 WBS589834:WBS589836 WLO589834:WLO589836 WVK589834:WVK589836 C655370:C655372 IY655370:IY655372 SU655370:SU655372 ACQ655370:ACQ655372 AMM655370:AMM655372 AWI655370:AWI655372 BGE655370:BGE655372 BQA655370:BQA655372 BZW655370:BZW655372 CJS655370:CJS655372 CTO655370:CTO655372 DDK655370:DDK655372 DNG655370:DNG655372 DXC655370:DXC655372 EGY655370:EGY655372 EQU655370:EQU655372 FAQ655370:FAQ655372 FKM655370:FKM655372 FUI655370:FUI655372 GEE655370:GEE655372 GOA655370:GOA655372 GXW655370:GXW655372 HHS655370:HHS655372 HRO655370:HRO655372 IBK655370:IBK655372 ILG655370:ILG655372 IVC655370:IVC655372 JEY655370:JEY655372 JOU655370:JOU655372 JYQ655370:JYQ655372 KIM655370:KIM655372 KSI655370:KSI655372 LCE655370:LCE655372 LMA655370:LMA655372 LVW655370:LVW655372 MFS655370:MFS655372 MPO655370:MPO655372 MZK655370:MZK655372 NJG655370:NJG655372 NTC655370:NTC655372 OCY655370:OCY655372 OMU655370:OMU655372 OWQ655370:OWQ655372 PGM655370:PGM655372 PQI655370:PQI655372 QAE655370:QAE655372 QKA655370:QKA655372 QTW655370:QTW655372 RDS655370:RDS655372 RNO655370:RNO655372 RXK655370:RXK655372 SHG655370:SHG655372 SRC655370:SRC655372 TAY655370:TAY655372 TKU655370:TKU655372 TUQ655370:TUQ655372 UEM655370:UEM655372 UOI655370:UOI655372 UYE655370:UYE655372 VIA655370:VIA655372 VRW655370:VRW655372 WBS655370:WBS655372 WLO655370:WLO655372 WVK655370:WVK655372 C720906:C720908 IY720906:IY720908 SU720906:SU720908 ACQ720906:ACQ720908 AMM720906:AMM720908 AWI720906:AWI720908 BGE720906:BGE720908 BQA720906:BQA720908 BZW720906:BZW720908 CJS720906:CJS720908 CTO720906:CTO720908 DDK720906:DDK720908 DNG720906:DNG720908 DXC720906:DXC720908 EGY720906:EGY720908 EQU720906:EQU720908 FAQ720906:FAQ720908 FKM720906:FKM720908 FUI720906:FUI720908 GEE720906:GEE720908 GOA720906:GOA720908 GXW720906:GXW720908 HHS720906:HHS720908 HRO720906:HRO720908 IBK720906:IBK720908 ILG720906:ILG720908 IVC720906:IVC720908 JEY720906:JEY720908 JOU720906:JOU720908 JYQ720906:JYQ720908 KIM720906:KIM720908 KSI720906:KSI720908 LCE720906:LCE720908 LMA720906:LMA720908 LVW720906:LVW720908 MFS720906:MFS720908 MPO720906:MPO720908 MZK720906:MZK720908 NJG720906:NJG720908 NTC720906:NTC720908 OCY720906:OCY720908 OMU720906:OMU720908 OWQ720906:OWQ720908 PGM720906:PGM720908 PQI720906:PQI720908 QAE720906:QAE720908 QKA720906:QKA720908 QTW720906:QTW720908 RDS720906:RDS720908 RNO720906:RNO720908 RXK720906:RXK720908 SHG720906:SHG720908 SRC720906:SRC720908 TAY720906:TAY720908 TKU720906:TKU720908 TUQ720906:TUQ720908 UEM720906:UEM720908 UOI720906:UOI720908 UYE720906:UYE720908 VIA720906:VIA720908 VRW720906:VRW720908 WBS720906:WBS720908 WLO720906:WLO720908 WVK720906:WVK720908 C786442:C786444 IY786442:IY786444 SU786442:SU786444 ACQ786442:ACQ786444 AMM786442:AMM786444 AWI786442:AWI786444 BGE786442:BGE786444 BQA786442:BQA786444 BZW786442:BZW786444 CJS786442:CJS786444 CTO786442:CTO786444 DDK786442:DDK786444 DNG786442:DNG786444 DXC786442:DXC786444 EGY786442:EGY786444 EQU786442:EQU786444 FAQ786442:FAQ786444 FKM786442:FKM786444 FUI786442:FUI786444 GEE786442:GEE786444 GOA786442:GOA786444 GXW786442:GXW786444 HHS786442:HHS786444 HRO786442:HRO786444 IBK786442:IBK786444 ILG786442:ILG786444 IVC786442:IVC786444 JEY786442:JEY786444 JOU786442:JOU786444 JYQ786442:JYQ786444 KIM786442:KIM786444 KSI786442:KSI786444 LCE786442:LCE786444 LMA786442:LMA786444 LVW786442:LVW786444 MFS786442:MFS786444 MPO786442:MPO786444 MZK786442:MZK786444 NJG786442:NJG786444 NTC786442:NTC786444 OCY786442:OCY786444 OMU786442:OMU786444 OWQ786442:OWQ786444 PGM786442:PGM786444 PQI786442:PQI786444 QAE786442:QAE786444 QKA786442:QKA786444 QTW786442:QTW786444 RDS786442:RDS786444 RNO786442:RNO786444 RXK786442:RXK786444 SHG786442:SHG786444 SRC786442:SRC786444 TAY786442:TAY786444 TKU786442:TKU786444 TUQ786442:TUQ786444 UEM786442:UEM786444 UOI786442:UOI786444 UYE786442:UYE786444 VIA786442:VIA786444 VRW786442:VRW786444 WBS786442:WBS786444 WLO786442:WLO786444 WVK786442:WVK786444 C851978:C851980 IY851978:IY851980 SU851978:SU851980 ACQ851978:ACQ851980 AMM851978:AMM851980 AWI851978:AWI851980 BGE851978:BGE851980 BQA851978:BQA851980 BZW851978:BZW851980 CJS851978:CJS851980 CTO851978:CTO851980 DDK851978:DDK851980 DNG851978:DNG851980 DXC851978:DXC851980 EGY851978:EGY851980 EQU851978:EQU851980 FAQ851978:FAQ851980 FKM851978:FKM851980 FUI851978:FUI851980 GEE851978:GEE851980 GOA851978:GOA851980 GXW851978:GXW851980 HHS851978:HHS851980 HRO851978:HRO851980 IBK851978:IBK851980 ILG851978:ILG851980 IVC851978:IVC851980 JEY851978:JEY851980 JOU851978:JOU851980 JYQ851978:JYQ851980 KIM851978:KIM851980 KSI851978:KSI851980 LCE851978:LCE851980 LMA851978:LMA851980 LVW851978:LVW851980 MFS851978:MFS851980 MPO851978:MPO851980 MZK851978:MZK851980 NJG851978:NJG851980 NTC851978:NTC851980 OCY851978:OCY851980 OMU851978:OMU851980 OWQ851978:OWQ851980 PGM851978:PGM851980 PQI851978:PQI851980 QAE851978:QAE851980 QKA851978:QKA851980 QTW851978:QTW851980 RDS851978:RDS851980 RNO851978:RNO851980 RXK851978:RXK851980 SHG851978:SHG851980 SRC851978:SRC851980 TAY851978:TAY851980 TKU851978:TKU851980 TUQ851978:TUQ851980 UEM851978:UEM851980 UOI851978:UOI851980 UYE851978:UYE851980 VIA851978:VIA851980 VRW851978:VRW851980 WBS851978:WBS851980 WLO851978:WLO851980 WVK851978:WVK851980 C917514:C917516 IY917514:IY917516 SU917514:SU917516 ACQ917514:ACQ917516 AMM917514:AMM917516 AWI917514:AWI917516 BGE917514:BGE917516 BQA917514:BQA917516 BZW917514:BZW917516 CJS917514:CJS917516 CTO917514:CTO917516 DDK917514:DDK917516 DNG917514:DNG917516 DXC917514:DXC917516 EGY917514:EGY917516 EQU917514:EQU917516 FAQ917514:FAQ917516 FKM917514:FKM917516 FUI917514:FUI917516 GEE917514:GEE917516 GOA917514:GOA917516 GXW917514:GXW917516 HHS917514:HHS917516 HRO917514:HRO917516 IBK917514:IBK917516 ILG917514:ILG917516 IVC917514:IVC917516 JEY917514:JEY917516 JOU917514:JOU917516 JYQ917514:JYQ917516 KIM917514:KIM917516 KSI917514:KSI917516 LCE917514:LCE917516 LMA917514:LMA917516 LVW917514:LVW917516 MFS917514:MFS917516 MPO917514:MPO917516 MZK917514:MZK917516 NJG917514:NJG917516 NTC917514:NTC917516 OCY917514:OCY917516 OMU917514:OMU917516 OWQ917514:OWQ917516 PGM917514:PGM917516 PQI917514:PQI917516 QAE917514:QAE917516 QKA917514:QKA917516 QTW917514:QTW917516 RDS917514:RDS917516 RNO917514:RNO917516 RXK917514:RXK917516 SHG917514:SHG917516 SRC917514:SRC917516 TAY917514:TAY917516 TKU917514:TKU917516 TUQ917514:TUQ917516 UEM917514:UEM917516 UOI917514:UOI917516 UYE917514:UYE917516 VIA917514:VIA917516 VRW917514:VRW917516 WBS917514:WBS917516 WLO917514:WLO917516 WVK917514:WVK917516 C983050:C983052 IY983050:IY983052 SU983050:SU983052 ACQ983050:ACQ983052 AMM983050:AMM983052 AWI983050:AWI983052 BGE983050:BGE983052 BQA983050:BQA983052 BZW983050:BZW983052 CJS983050:CJS983052 CTO983050:CTO983052 DDK983050:DDK983052 DNG983050:DNG983052 DXC983050:DXC983052 EGY983050:EGY983052 EQU983050:EQU983052 FAQ983050:FAQ983052 FKM983050:FKM983052 FUI983050:FUI983052 GEE983050:GEE983052 GOA983050:GOA983052 GXW983050:GXW983052 HHS983050:HHS983052 HRO983050:HRO983052 IBK983050:IBK983052 ILG983050:ILG983052 IVC983050:IVC983052 JEY983050:JEY983052 JOU983050:JOU983052 JYQ983050:JYQ983052 KIM983050:KIM983052 KSI983050:KSI983052 LCE983050:LCE983052 LMA983050:LMA983052 LVW983050:LVW983052 MFS983050:MFS983052 MPO983050:MPO983052 MZK983050:MZK983052 NJG983050:NJG983052 NTC983050:NTC983052 OCY983050:OCY983052 OMU983050:OMU983052 OWQ983050:OWQ983052 PGM983050:PGM983052 PQI983050:PQI983052 QAE983050:QAE983052 QKA983050:QKA983052 QTW983050:QTW983052 RDS983050:RDS983052 RNO983050:RNO983052 RXK983050:RXK983052 SHG983050:SHG983052 SRC983050:SRC983052 TAY983050:TAY983052 TKU983050:TKU983052 TUQ983050:TUQ983052 UEM983050:UEM983052 UOI983050:UOI983052 UYE983050:UYE983052 VIA983050:VIA983052 VRW983050:VRW983052 WBS983050:WBS983052 WLO983050:WLO983052 C10:C14">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I24 JE16:JE20 TA16:TA20 ACW16:ACW20 AMS16:AMS20 AWO16:AWO20 BGK16:BGK20 BQG16:BQG20 CAC16:CAC20 CJY16:CJY20 CTU16:CTU20 DDQ16:DDQ20 DNM16:DNM20 DXI16:DXI20 EHE16:EHE20 ERA16:ERA20 FAW16:FAW20 FKS16:FKS20 FUO16:FUO20 GEK16:GEK20 GOG16:GOG20 GYC16:GYC20 HHY16:HHY20 HRU16:HRU20 IBQ16:IBQ20 ILM16:ILM20 IVI16:IVI20 JFE16:JFE20 JPA16:JPA20 JYW16:JYW20 KIS16:KIS20 KSO16:KSO20 LCK16:LCK20 LMG16:LMG20 LWC16:LWC20 MFY16:MFY20 MPU16:MPU20 MZQ16:MZQ20 NJM16:NJM20 NTI16:NTI20 ODE16:ODE20 ONA16:ONA20 OWW16:OWW20 PGS16:PGS20 PQO16:PQO20 QAK16:QAK20 QKG16:QKG20 QUC16:QUC20 RDY16:RDY20 RNU16:RNU20 RXQ16:RXQ20 SHM16:SHM20 SRI16:SRI20 TBE16:TBE20 TLA16:TLA20 TUW16:TUW20 UES16:UES20 UOO16:UOO20 UYK16:UYK20 VIG16:VIG20 VSC16:VSC20 WBY16:WBY20 WLU16:WLU20 WVQ16:WVQ20 I65552:I65556 JE65552:JE65556 TA65552:TA65556 ACW65552:ACW65556 AMS65552:AMS65556 AWO65552:AWO65556 BGK65552:BGK65556 BQG65552:BQG65556 CAC65552:CAC65556 CJY65552:CJY65556 CTU65552:CTU65556 DDQ65552:DDQ65556 DNM65552:DNM65556 DXI65552:DXI65556 EHE65552:EHE65556 ERA65552:ERA65556 FAW65552:FAW65556 FKS65552:FKS65556 FUO65552:FUO65556 GEK65552:GEK65556 GOG65552:GOG65556 GYC65552:GYC65556 HHY65552:HHY65556 HRU65552:HRU65556 IBQ65552:IBQ65556 ILM65552:ILM65556 IVI65552:IVI65556 JFE65552:JFE65556 JPA65552:JPA65556 JYW65552:JYW65556 KIS65552:KIS65556 KSO65552:KSO65556 LCK65552:LCK65556 LMG65552:LMG65556 LWC65552:LWC65556 MFY65552:MFY65556 MPU65552:MPU65556 MZQ65552:MZQ65556 NJM65552:NJM65556 NTI65552:NTI65556 ODE65552:ODE65556 ONA65552:ONA65556 OWW65552:OWW65556 PGS65552:PGS65556 PQO65552:PQO65556 QAK65552:QAK65556 QKG65552:QKG65556 QUC65552:QUC65556 RDY65552:RDY65556 RNU65552:RNU65556 RXQ65552:RXQ65556 SHM65552:SHM65556 SRI65552:SRI65556 TBE65552:TBE65556 TLA65552:TLA65556 TUW65552:TUW65556 UES65552:UES65556 UOO65552:UOO65556 UYK65552:UYK65556 VIG65552:VIG65556 VSC65552:VSC65556 WBY65552:WBY65556 WLU65552:WLU65556 WVQ65552:WVQ65556 I131088:I131092 JE131088:JE131092 TA131088:TA131092 ACW131088:ACW131092 AMS131088:AMS131092 AWO131088:AWO131092 BGK131088:BGK131092 BQG131088:BQG131092 CAC131088:CAC131092 CJY131088:CJY131092 CTU131088:CTU131092 DDQ131088:DDQ131092 DNM131088:DNM131092 DXI131088:DXI131092 EHE131088:EHE131092 ERA131088:ERA131092 FAW131088:FAW131092 FKS131088:FKS131092 FUO131088:FUO131092 GEK131088:GEK131092 GOG131088:GOG131092 GYC131088:GYC131092 HHY131088:HHY131092 HRU131088:HRU131092 IBQ131088:IBQ131092 ILM131088:ILM131092 IVI131088:IVI131092 JFE131088:JFE131092 JPA131088:JPA131092 JYW131088:JYW131092 KIS131088:KIS131092 KSO131088:KSO131092 LCK131088:LCK131092 LMG131088:LMG131092 LWC131088:LWC131092 MFY131088:MFY131092 MPU131088:MPU131092 MZQ131088:MZQ131092 NJM131088:NJM131092 NTI131088:NTI131092 ODE131088:ODE131092 ONA131088:ONA131092 OWW131088:OWW131092 PGS131088:PGS131092 PQO131088:PQO131092 QAK131088:QAK131092 QKG131088:QKG131092 QUC131088:QUC131092 RDY131088:RDY131092 RNU131088:RNU131092 RXQ131088:RXQ131092 SHM131088:SHM131092 SRI131088:SRI131092 TBE131088:TBE131092 TLA131088:TLA131092 TUW131088:TUW131092 UES131088:UES131092 UOO131088:UOO131092 UYK131088:UYK131092 VIG131088:VIG131092 VSC131088:VSC131092 WBY131088:WBY131092 WLU131088:WLU131092 WVQ131088:WVQ131092 I196624:I196628 JE196624:JE196628 TA196624:TA196628 ACW196624:ACW196628 AMS196624:AMS196628 AWO196624:AWO196628 BGK196624:BGK196628 BQG196624:BQG196628 CAC196624:CAC196628 CJY196624:CJY196628 CTU196624:CTU196628 DDQ196624:DDQ196628 DNM196624:DNM196628 DXI196624:DXI196628 EHE196624:EHE196628 ERA196624:ERA196628 FAW196624:FAW196628 FKS196624:FKS196628 FUO196624:FUO196628 GEK196624:GEK196628 GOG196624:GOG196628 GYC196624:GYC196628 HHY196624:HHY196628 HRU196624:HRU196628 IBQ196624:IBQ196628 ILM196624:ILM196628 IVI196624:IVI196628 JFE196624:JFE196628 JPA196624:JPA196628 JYW196624:JYW196628 KIS196624:KIS196628 KSO196624:KSO196628 LCK196624:LCK196628 LMG196624:LMG196628 LWC196624:LWC196628 MFY196624:MFY196628 MPU196624:MPU196628 MZQ196624:MZQ196628 NJM196624:NJM196628 NTI196624:NTI196628 ODE196624:ODE196628 ONA196624:ONA196628 OWW196624:OWW196628 PGS196624:PGS196628 PQO196624:PQO196628 QAK196624:QAK196628 QKG196624:QKG196628 QUC196624:QUC196628 RDY196624:RDY196628 RNU196624:RNU196628 RXQ196624:RXQ196628 SHM196624:SHM196628 SRI196624:SRI196628 TBE196624:TBE196628 TLA196624:TLA196628 TUW196624:TUW196628 UES196624:UES196628 UOO196624:UOO196628 UYK196624:UYK196628 VIG196624:VIG196628 VSC196624:VSC196628 WBY196624:WBY196628 WLU196624:WLU196628 WVQ196624:WVQ196628 I262160:I262164 JE262160:JE262164 TA262160:TA262164 ACW262160:ACW262164 AMS262160:AMS262164 AWO262160:AWO262164 BGK262160:BGK262164 BQG262160:BQG262164 CAC262160:CAC262164 CJY262160:CJY262164 CTU262160:CTU262164 DDQ262160:DDQ262164 DNM262160:DNM262164 DXI262160:DXI262164 EHE262160:EHE262164 ERA262160:ERA262164 FAW262160:FAW262164 FKS262160:FKS262164 FUO262160:FUO262164 GEK262160:GEK262164 GOG262160:GOG262164 GYC262160:GYC262164 HHY262160:HHY262164 HRU262160:HRU262164 IBQ262160:IBQ262164 ILM262160:ILM262164 IVI262160:IVI262164 JFE262160:JFE262164 JPA262160:JPA262164 JYW262160:JYW262164 KIS262160:KIS262164 KSO262160:KSO262164 LCK262160:LCK262164 LMG262160:LMG262164 LWC262160:LWC262164 MFY262160:MFY262164 MPU262160:MPU262164 MZQ262160:MZQ262164 NJM262160:NJM262164 NTI262160:NTI262164 ODE262160:ODE262164 ONA262160:ONA262164 OWW262160:OWW262164 PGS262160:PGS262164 PQO262160:PQO262164 QAK262160:QAK262164 QKG262160:QKG262164 QUC262160:QUC262164 RDY262160:RDY262164 RNU262160:RNU262164 RXQ262160:RXQ262164 SHM262160:SHM262164 SRI262160:SRI262164 TBE262160:TBE262164 TLA262160:TLA262164 TUW262160:TUW262164 UES262160:UES262164 UOO262160:UOO262164 UYK262160:UYK262164 VIG262160:VIG262164 VSC262160:VSC262164 WBY262160:WBY262164 WLU262160:WLU262164 WVQ262160:WVQ262164 I327696:I327700 JE327696:JE327700 TA327696:TA327700 ACW327696:ACW327700 AMS327696:AMS327700 AWO327696:AWO327700 BGK327696:BGK327700 BQG327696:BQG327700 CAC327696:CAC327700 CJY327696:CJY327700 CTU327696:CTU327700 DDQ327696:DDQ327700 DNM327696:DNM327700 DXI327696:DXI327700 EHE327696:EHE327700 ERA327696:ERA327700 FAW327696:FAW327700 FKS327696:FKS327700 FUO327696:FUO327700 GEK327696:GEK327700 GOG327696:GOG327700 GYC327696:GYC327700 HHY327696:HHY327700 HRU327696:HRU327700 IBQ327696:IBQ327700 ILM327696:ILM327700 IVI327696:IVI327700 JFE327696:JFE327700 JPA327696:JPA327700 JYW327696:JYW327700 KIS327696:KIS327700 KSO327696:KSO327700 LCK327696:LCK327700 LMG327696:LMG327700 LWC327696:LWC327700 MFY327696:MFY327700 MPU327696:MPU327700 MZQ327696:MZQ327700 NJM327696:NJM327700 NTI327696:NTI327700 ODE327696:ODE327700 ONA327696:ONA327700 OWW327696:OWW327700 PGS327696:PGS327700 PQO327696:PQO327700 QAK327696:QAK327700 QKG327696:QKG327700 QUC327696:QUC327700 RDY327696:RDY327700 RNU327696:RNU327700 RXQ327696:RXQ327700 SHM327696:SHM327700 SRI327696:SRI327700 TBE327696:TBE327700 TLA327696:TLA327700 TUW327696:TUW327700 UES327696:UES327700 UOO327696:UOO327700 UYK327696:UYK327700 VIG327696:VIG327700 VSC327696:VSC327700 WBY327696:WBY327700 WLU327696:WLU327700 WVQ327696:WVQ327700 I393232:I393236 JE393232:JE393236 TA393232:TA393236 ACW393232:ACW393236 AMS393232:AMS393236 AWO393232:AWO393236 BGK393232:BGK393236 BQG393232:BQG393236 CAC393232:CAC393236 CJY393232:CJY393236 CTU393232:CTU393236 DDQ393232:DDQ393236 DNM393232:DNM393236 DXI393232:DXI393236 EHE393232:EHE393236 ERA393232:ERA393236 FAW393232:FAW393236 FKS393232:FKS393236 FUO393232:FUO393236 GEK393232:GEK393236 GOG393232:GOG393236 GYC393232:GYC393236 HHY393232:HHY393236 HRU393232:HRU393236 IBQ393232:IBQ393236 ILM393232:ILM393236 IVI393232:IVI393236 JFE393232:JFE393236 JPA393232:JPA393236 JYW393232:JYW393236 KIS393232:KIS393236 KSO393232:KSO393236 LCK393232:LCK393236 LMG393232:LMG393236 LWC393232:LWC393236 MFY393232:MFY393236 MPU393232:MPU393236 MZQ393232:MZQ393236 NJM393232:NJM393236 NTI393232:NTI393236 ODE393232:ODE393236 ONA393232:ONA393236 OWW393232:OWW393236 PGS393232:PGS393236 PQO393232:PQO393236 QAK393232:QAK393236 QKG393232:QKG393236 QUC393232:QUC393236 RDY393232:RDY393236 RNU393232:RNU393236 RXQ393232:RXQ393236 SHM393232:SHM393236 SRI393232:SRI393236 TBE393232:TBE393236 TLA393232:TLA393236 TUW393232:TUW393236 UES393232:UES393236 UOO393232:UOO393236 UYK393232:UYK393236 VIG393232:VIG393236 VSC393232:VSC393236 WBY393232:WBY393236 WLU393232:WLU393236 WVQ393232:WVQ393236 I458768:I458772 JE458768:JE458772 TA458768:TA458772 ACW458768:ACW458772 AMS458768:AMS458772 AWO458768:AWO458772 BGK458768:BGK458772 BQG458768:BQG458772 CAC458768:CAC458772 CJY458768:CJY458772 CTU458768:CTU458772 DDQ458768:DDQ458772 DNM458768:DNM458772 DXI458768:DXI458772 EHE458768:EHE458772 ERA458768:ERA458772 FAW458768:FAW458772 FKS458768:FKS458772 FUO458768:FUO458772 GEK458768:GEK458772 GOG458768:GOG458772 GYC458768:GYC458772 HHY458768:HHY458772 HRU458768:HRU458772 IBQ458768:IBQ458772 ILM458768:ILM458772 IVI458768:IVI458772 JFE458768:JFE458772 JPA458768:JPA458772 JYW458768:JYW458772 KIS458768:KIS458772 KSO458768:KSO458772 LCK458768:LCK458772 LMG458768:LMG458772 LWC458768:LWC458772 MFY458768:MFY458772 MPU458768:MPU458772 MZQ458768:MZQ458772 NJM458768:NJM458772 NTI458768:NTI458772 ODE458768:ODE458772 ONA458768:ONA458772 OWW458768:OWW458772 PGS458768:PGS458772 PQO458768:PQO458772 QAK458768:QAK458772 QKG458768:QKG458772 QUC458768:QUC458772 RDY458768:RDY458772 RNU458768:RNU458772 RXQ458768:RXQ458772 SHM458768:SHM458772 SRI458768:SRI458772 TBE458768:TBE458772 TLA458768:TLA458772 TUW458768:TUW458772 UES458768:UES458772 UOO458768:UOO458772 UYK458768:UYK458772 VIG458768:VIG458772 VSC458768:VSC458772 WBY458768:WBY458772 WLU458768:WLU458772 WVQ458768:WVQ458772 I524304:I524308 JE524304:JE524308 TA524304:TA524308 ACW524304:ACW524308 AMS524304:AMS524308 AWO524304:AWO524308 BGK524304:BGK524308 BQG524304:BQG524308 CAC524304:CAC524308 CJY524304:CJY524308 CTU524304:CTU524308 DDQ524304:DDQ524308 DNM524304:DNM524308 DXI524304:DXI524308 EHE524304:EHE524308 ERA524304:ERA524308 FAW524304:FAW524308 FKS524304:FKS524308 FUO524304:FUO524308 GEK524304:GEK524308 GOG524304:GOG524308 GYC524304:GYC524308 HHY524304:HHY524308 HRU524304:HRU524308 IBQ524304:IBQ524308 ILM524304:ILM524308 IVI524304:IVI524308 JFE524304:JFE524308 JPA524304:JPA524308 JYW524304:JYW524308 KIS524304:KIS524308 KSO524304:KSO524308 LCK524304:LCK524308 LMG524304:LMG524308 LWC524304:LWC524308 MFY524304:MFY524308 MPU524304:MPU524308 MZQ524304:MZQ524308 NJM524304:NJM524308 NTI524304:NTI524308 ODE524304:ODE524308 ONA524304:ONA524308 OWW524304:OWW524308 PGS524304:PGS524308 PQO524304:PQO524308 QAK524304:QAK524308 QKG524304:QKG524308 QUC524304:QUC524308 RDY524304:RDY524308 RNU524304:RNU524308 RXQ524304:RXQ524308 SHM524304:SHM524308 SRI524304:SRI524308 TBE524304:TBE524308 TLA524304:TLA524308 TUW524304:TUW524308 UES524304:UES524308 UOO524304:UOO524308 UYK524304:UYK524308 VIG524304:VIG524308 VSC524304:VSC524308 WBY524304:WBY524308 WLU524304:WLU524308 WVQ524304:WVQ524308 I589840:I589844 JE589840:JE589844 TA589840:TA589844 ACW589840:ACW589844 AMS589840:AMS589844 AWO589840:AWO589844 BGK589840:BGK589844 BQG589840:BQG589844 CAC589840:CAC589844 CJY589840:CJY589844 CTU589840:CTU589844 DDQ589840:DDQ589844 DNM589840:DNM589844 DXI589840:DXI589844 EHE589840:EHE589844 ERA589840:ERA589844 FAW589840:FAW589844 FKS589840:FKS589844 FUO589840:FUO589844 GEK589840:GEK589844 GOG589840:GOG589844 GYC589840:GYC589844 HHY589840:HHY589844 HRU589840:HRU589844 IBQ589840:IBQ589844 ILM589840:ILM589844 IVI589840:IVI589844 JFE589840:JFE589844 JPA589840:JPA589844 JYW589840:JYW589844 KIS589840:KIS589844 KSO589840:KSO589844 LCK589840:LCK589844 LMG589840:LMG589844 LWC589840:LWC589844 MFY589840:MFY589844 MPU589840:MPU589844 MZQ589840:MZQ589844 NJM589840:NJM589844 NTI589840:NTI589844 ODE589840:ODE589844 ONA589840:ONA589844 OWW589840:OWW589844 PGS589840:PGS589844 PQO589840:PQO589844 QAK589840:QAK589844 QKG589840:QKG589844 QUC589840:QUC589844 RDY589840:RDY589844 RNU589840:RNU589844 RXQ589840:RXQ589844 SHM589840:SHM589844 SRI589840:SRI589844 TBE589840:TBE589844 TLA589840:TLA589844 TUW589840:TUW589844 UES589840:UES589844 UOO589840:UOO589844 UYK589840:UYK589844 VIG589840:VIG589844 VSC589840:VSC589844 WBY589840:WBY589844 WLU589840:WLU589844 WVQ589840:WVQ589844 I655376:I655380 JE655376:JE655380 TA655376:TA655380 ACW655376:ACW655380 AMS655376:AMS655380 AWO655376:AWO655380 BGK655376:BGK655380 BQG655376:BQG655380 CAC655376:CAC655380 CJY655376:CJY655380 CTU655376:CTU655380 DDQ655376:DDQ655380 DNM655376:DNM655380 DXI655376:DXI655380 EHE655376:EHE655380 ERA655376:ERA655380 FAW655376:FAW655380 FKS655376:FKS655380 FUO655376:FUO655380 GEK655376:GEK655380 GOG655376:GOG655380 GYC655376:GYC655380 HHY655376:HHY655380 HRU655376:HRU655380 IBQ655376:IBQ655380 ILM655376:ILM655380 IVI655376:IVI655380 JFE655376:JFE655380 JPA655376:JPA655380 JYW655376:JYW655380 KIS655376:KIS655380 KSO655376:KSO655380 LCK655376:LCK655380 LMG655376:LMG655380 LWC655376:LWC655380 MFY655376:MFY655380 MPU655376:MPU655380 MZQ655376:MZQ655380 NJM655376:NJM655380 NTI655376:NTI655380 ODE655376:ODE655380 ONA655376:ONA655380 OWW655376:OWW655380 PGS655376:PGS655380 PQO655376:PQO655380 QAK655376:QAK655380 QKG655376:QKG655380 QUC655376:QUC655380 RDY655376:RDY655380 RNU655376:RNU655380 RXQ655376:RXQ655380 SHM655376:SHM655380 SRI655376:SRI655380 TBE655376:TBE655380 TLA655376:TLA655380 TUW655376:TUW655380 UES655376:UES655380 UOO655376:UOO655380 UYK655376:UYK655380 VIG655376:VIG655380 VSC655376:VSC655380 WBY655376:WBY655380 WLU655376:WLU655380 WVQ655376:WVQ655380 I720912:I720916 JE720912:JE720916 TA720912:TA720916 ACW720912:ACW720916 AMS720912:AMS720916 AWO720912:AWO720916 BGK720912:BGK720916 BQG720912:BQG720916 CAC720912:CAC720916 CJY720912:CJY720916 CTU720912:CTU720916 DDQ720912:DDQ720916 DNM720912:DNM720916 DXI720912:DXI720916 EHE720912:EHE720916 ERA720912:ERA720916 FAW720912:FAW720916 FKS720912:FKS720916 FUO720912:FUO720916 GEK720912:GEK720916 GOG720912:GOG720916 GYC720912:GYC720916 HHY720912:HHY720916 HRU720912:HRU720916 IBQ720912:IBQ720916 ILM720912:ILM720916 IVI720912:IVI720916 JFE720912:JFE720916 JPA720912:JPA720916 JYW720912:JYW720916 KIS720912:KIS720916 KSO720912:KSO720916 LCK720912:LCK720916 LMG720912:LMG720916 LWC720912:LWC720916 MFY720912:MFY720916 MPU720912:MPU720916 MZQ720912:MZQ720916 NJM720912:NJM720916 NTI720912:NTI720916 ODE720912:ODE720916 ONA720912:ONA720916 OWW720912:OWW720916 PGS720912:PGS720916 PQO720912:PQO720916 QAK720912:QAK720916 QKG720912:QKG720916 QUC720912:QUC720916 RDY720912:RDY720916 RNU720912:RNU720916 RXQ720912:RXQ720916 SHM720912:SHM720916 SRI720912:SRI720916 TBE720912:TBE720916 TLA720912:TLA720916 TUW720912:TUW720916 UES720912:UES720916 UOO720912:UOO720916 UYK720912:UYK720916 VIG720912:VIG720916 VSC720912:VSC720916 WBY720912:WBY720916 WLU720912:WLU720916 WVQ720912:WVQ720916 I786448:I786452 JE786448:JE786452 TA786448:TA786452 ACW786448:ACW786452 AMS786448:AMS786452 AWO786448:AWO786452 BGK786448:BGK786452 BQG786448:BQG786452 CAC786448:CAC786452 CJY786448:CJY786452 CTU786448:CTU786452 DDQ786448:DDQ786452 DNM786448:DNM786452 DXI786448:DXI786452 EHE786448:EHE786452 ERA786448:ERA786452 FAW786448:FAW786452 FKS786448:FKS786452 FUO786448:FUO786452 GEK786448:GEK786452 GOG786448:GOG786452 GYC786448:GYC786452 HHY786448:HHY786452 HRU786448:HRU786452 IBQ786448:IBQ786452 ILM786448:ILM786452 IVI786448:IVI786452 JFE786448:JFE786452 JPA786448:JPA786452 JYW786448:JYW786452 KIS786448:KIS786452 KSO786448:KSO786452 LCK786448:LCK786452 LMG786448:LMG786452 LWC786448:LWC786452 MFY786448:MFY786452 MPU786448:MPU786452 MZQ786448:MZQ786452 NJM786448:NJM786452 NTI786448:NTI786452 ODE786448:ODE786452 ONA786448:ONA786452 OWW786448:OWW786452 PGS786448:PGS786452 PQO786448:PQO786452 QAK786448:QAK786452 QKG786448:QKG786452 QUC786448:QUC786452 RDY786448:RDY786452 RNU786448:RNU786452 RXQ786448:RXQ786452 SHM786448:SHM786452 SRI786448:SRI786452 TBE786448:TBE786452 TLA786448:TLA786452 TUW786448:TUW786452 UES786448:UES786452 UOO786448:UOO786452 UYK786448:UYK786452 VIG786448:VIG786452 VSC786448:VSC786452 WBY786448:WBY786452 WLU786448:WLU786452 WVQ786448:WVQ786452 I851984:I851988 JE851984:JE851988 TA851984:TA851988 ACW851984:ACW851988 AMS851984:AMS851988 AWO851984:AWO851988 BGK851984:BGK851988 BQG851984:BQG851988 CAC851984:CAC851988 CJY851984:CJY851988 CTU851984:CTU851988 DDQ851984:DDQ851988 DNM851984:DNM851988 DXI851984:DXI851988 EHE851984:EHE851988 ERA851984:ERA851988 FAW851984:FAW851988 FKS851984:FKS851988 FUO851984:FUO851988 GEK851984:GEK851988 GOG851984:GOG851988 GYC851984:GYC851988 HHY851984:HHY851988 HRU851984:HRU851988 IBQ851984:IBQ851988 ILM851984:ILM851988 IVI851984:IVI851988 JFE851984:JFE851988 JPA851984:JPA851988 JYW851984:JYW851988 KIS851984:KIS851988 KSO851984:KSO851988 LCK851984:LCK851988 LMG851984:LMG851988 LWC851984:LWC851988 MFY851984:MFY851988 MPU851984:MPU851988 MZQ851984:MZQ851988 NJM851984:NJM851988 NTI851984:NTI851988 ODE851984:ODE851988 ONA851984:ONA851988 OWW851984:OWW851988 PGS851984:PGS851988 PQO851984:PQO851988 QAK851984:QAK851988 QKG851984:QKG851988 QUC851984:QUC851988 RDY851984:RDY851988 RNU851984:RNU851988 RXQ851984:RXQ851988 SHM851984:SHM851988 SRI851984:SRI851988 TBE851984:TBE851988 TLA851984:TLA851988 TUW851984:TUW851988 UES851984:UES851988 UOO851984:UOO851988 UYK851984:UYK851988 VIG851984:VIG851988 VSC851984:VSC851988 WBY851984:WBY851988 WLU851984:WLU851988 WVQ851984:WVQ851988 I917520:I917524 JE917520:JE917524 TA917520:TA917524 ACW917520:ACW917524 AMS917520:AMS917524 AWO917520:AWO917524 BGK917520:BGK917524 BQG917520:BQG917524 CAC917520:CAC917524 CJY917520:CJY917524 CTU917520:CTU917524 DDQ917520:DDQ917524 DNM917520:DNM917524 DXI917520:DXI917524 EHE917520:EHE917524 ERA917520:ERA917524 FAW917520:FAW917524 FKS917520:FKS917524 FUO917520:FUO917524 GEK917520:GEK917524 GOG917520:GOG917524 GYC917520:GYC917524 HHY917520:HHY917524 HRU917520:HRU917524 IBQ917520:IBQ917524 ILM917520:ILM917524 IVI917520:IVI917524 JFE917520:JFE917524 JPA917520:JPA917524 JYW917520:JYW917524 KIS917520:KIS917524 KSO917520:KSO917524 LCK917520:LCK917524 LMG917520:LMG917524 LWC917520:LWC917524 MFY917520:MFY917524 MPU917520:MPU917524 MZQ917520:MZQ917524 NJM917520:NJM917524 NTI917520:NTI917524 ODE917520:ODE917524 ONA917520:ONA917524 OWW917520:OWW917524 PGS917520:PGS917524 PQO917520:PQO917524 QAK917520:QAK917524 QKG917520:QKG917524 QUC917520:QUC917524 RDY917520:RDY917524 RNU917520:RNU917524 RXQ917520:RXQ917524 SHM917520:SHM917524 SRI917520:SRI917524 TBE917520:TBE917524 TLA917520:TLA917524 TUW917520:TUW917524 UES917520:UES917524 UOO917520:UOO917524 UYK917520:UYK917524 VIG917520:VIG917524 VSC917520:VSC917524 WBY917520:WBY917524 WLU917520:WLU917524 WVQ917520:WVQ917524 I983056:I983060 JE983056:JE983060 TA983056:TA983060 ACW983056:ACW983060 AMS983056:AMS983060 AWO983056:AWO983060 BGK983056:BGK983060 BQG983056:BQG983060 CAC983056:CAC983060 CJY983056:CJY983060 CTU983056:CTU983060 DDQ983056:DDQ983060 DNM983056:DNM983060 DXI983056:DXI983060 EHE983056:EHE983060 ERA983056:ERA983060 FAW983056:FAW983060 FKS983056:FKS983060 FUO983056:FUO983060 GEK983056:GEK983060 GOG983056:GOG983060 GYC983056:GYC983060 HHY983056:HHY983060 HRU983056:HRU983060 IBQ983056:IBQ983060 ILM983056:ILM983060 IVI983056:IVI983060 JFE983056:JFE983060 JPA983056:JPA983060 JYW983056:JYW983060 KIS983056:KIS983060 KSO983056:KSO983060 LCK983056:LCK983060 LMG983056:LMG983060 LWC983056:LWC983060 MFY983056:MFY983060 MPU983056:MPU983060 MZQ983056:MZQ983060 NJM983056:NJM983060 NTI983056:NTI983060 ODE983056:ODE983060 ONA983056:ONA983060 OWW983056:OWW983060 PGS983056:PGS983060 PQO983056:PQO983060 QAK983056:QAK983060 QKG983056:QKG983060 QUC983056:QUC983060 RDY983056:RDY983060 RNU983056:RNU983060 RXQ983056:RXQ983060 SHM983056:SHM983060 SRI983056:SRI983060 TBE983056:TBE983060 TLA983056:TLA983060 TUW983056:TUW983060 UES983056:UES983060 UOO983056:UOO983060 UYK983056:UYK983060 VIG983056:VIG983060 VSC983056:VSC983060 WBY983056:WBY983060 WLU983056:WLU983060 WVQ983056:WVQ983060 I33 JE29 TA29 ACW29 AMS29 AWO29 BGK29 BQG29 CAC29 CJY29 CTU29 DDQ29 DNM29 DXI29 EHE29 ERA29 FAW29 FKS29 FUO29 GEK29 GOG29 GYC29 HHY29 HRU29 IBQ29 ILM29 IVI29 JFE29 JPA29 JYW29 KIS29 KSO29 LCK29 LMG29 LWC29 MFY29 MPU29 MZQ29 NJM29 NTI29 ODE29 ONA29 OWW29 PGS29 PQO29 QAK29 QKG29 QUC29 RDY29 RNU29 RXQ29 SHM29 SRI29 TBE29 TLA29 TUW29 UES29 UOO29 UYK29 VIG29 VSC29 WBY29 WLU29 WVQ29 I65565 JE65565 TA65565 ACW65565 AMS65565 AWO65565 BGK65565 BQG65565 CAC65565 CJY65565 CTU65565 DDQ65565 DNM65565 DXI65565 EHE65565 ERA65565 FAW65565 FKS65565 FUO65565 GEK65565 GOG65565 GYC65565 HHY65565 HRU65565 IBQ65565 ILM65565 IVI65565 JFE65565 JPA65565 JYW65565 KIS65565 KSO65565 LCK65565 LMG65565 LWC65565 MFY65565 MPU65565 MZQ65565 NJM65565 NTI65565 ODE65565 ONA65565 OWW65565 PGS65565 PQO65565 QAK65565 QKG65565 QUC65565 RDY65565 RNU65565 RXQ65565 SHM65565 SRI65565 TBE65565 TLA65565 TUW65565 UES65565 UOO65565 UYK65565 VIG65565 VSC65565 WBY65565 WLU65565 WVQ65565 I131101 JE131101 TA131101 ACW131101 AMS131101 AWO131101 BGK131101 BQG131101 CAC131101 CJY131101 CTU131101 DDQ131101 DNM131101 DXI131101 EHE131101 ERA131101 FAW131101 FKS131101 FUO131101 GEK131101 GOG131101 GYC131101 HHY131101 HRU131101 IBQ131101 ILM131101 IVI131101 JFE131101 JPA131101 JYW131101 KIS131101 KSO131101 LCK131101 LMG131101 LWC131101 MFY131101 MPU131101 MZQ131101 NJM131101 NTI131101 ODE131101 ONA131101 OWW131101 PGS131101 PQO131101 QAK131101 QKG131101 QUC131101 RDY131101 RNU131101 RXQ131101 SHM131101 SRI131101 TBE131101 TLA131101 TUW131101 UES131101 UOO131101 UYK131101 VIG131101 VSC131101 WBY131101 WLU131101 WVQ131101 I196637 JE196637 TA196637 ACW196637 AMS196637 AWO196637 BGK196637 BQG196637 CAC196637 CJY196637 CTU196637 DDQ196637 DNM196637 DXI196637 EHE196637 ERA196637 FAW196637 FKS196637 FUO196637 GEK196637 GOG196637 GYC196637 HHY196637 HRU196637 IBQ196637 ILM196637 IVI196637 JFE196637 JPA196637 JYW196637 KIS196637 KSO196637 LCK196637 LMG196637 LWC196637 MFY196637 MPU196637 MZQ196637 NJM196637 NTI196637 ODE196637 ONA196637 OWW196637 PGS196637 PQO196637 QAK196637 QKG196637 QUC196637 RDY196637 RNU196637 RXQ196637 SHM196637 SRI196637 TBE196637 TLA196637 TUW196637 UES196637 UOO196637 UYK196637 VIG196637 VSC196637 WBY196637 WLU196637 WVQ196637 I262173 JE262173 TA262173 ACW262173 AMS262173 AWO262173 BGK262173 BQG262173 CAC262173 CJY262173 CTU262173 DDQ262173 DNM262173 DXI262173 EHE262173 ERA262173 FAW262173 FKS262173 FUO262173 GEK262173 GOG262173 GYC262173 HHY262173 HRU262173 IBQ262173 ILM262173 IVI262173 JFE262173 JPA262173 JYW262173 KIS262173 KSO262173 LCK262173 LMG262173 LWC262173 MFY262173 MPU262173 MZQ262173 NJM262173 NTI262173 ODE262173 ONA262173 OWW262173 PGS262173 PQO262173 QAK262173 QKG262173 QUC262173 RDY262173 RNU262173 RXQ262173 SHM262173 SRI262173 TBE262173 TLA262173 TUW262173 UES262173 UOO262173 UYK262173 VIG262173 VSC262173 WBY262173 WLU262173 WVQ262173 I327709 JE327709 TA327709 ACW327709 AMS327709 AWO327709 BGK327709 BQG327709 CAC327709 CJY327709 CTU327709 DDQ327709 DNM327709 DXI327709 EHE327709 ERA327709 FAW327709 FKS327709 FUO327709 GEK327709 GOG327709 GYC327709 HHY327709 HRU327709 IBQ327709 ILM327709 IVI327709 JFE327709 JPA327709 JYW327709 KIS327709 KSO327709 LCK327709 LMG327709 LWC327709 MFY327709 MPU327709 MZQ327709 NJM327709 NTI327709 ODE327709 ONA327709 OWW327709 PGS327709 PQO327709 QAK327709 QKG327709 QUC327709 RDY327709 RNU327709 RXQ327709 SHM327709 SRI327709 TBE327709 TLA327709 TUW327709 UES327709 UOO327709 UYK327709 VIG327709 VSC327709 WBY327709 WLU327709 WVQ327709 I393245 JE393245 TA393245 ACW393245 AMS393245 AWO393245 BGK393245 BQG393245 CAC393245 CJY393245 CTU393245 DDQ393245 DNM393245 DXI393245 EHE393245 ERA393245 FAW393245 FKS393245 FUO393245 GEK393245 GOG393245 GYC393245 HHY393245 HRU393245 IBQ393245 ILM393245 IVI393245 JFE393245 JPA393245 JYW393245 KIS393245 KSO393245 LCK393245 LMG393245 LWC393245 MFY393245 MPU393245 MZQ393245 NJM393245 NTI393245 ODE393245 ONA393245 OWW393245 PGS393245 PQO393245 QAK393245 QKG393245 QUC393245 RDY393245 RNU393245 RXQ393245 SHM393245 SRI393245 TBE393245 TLA393245 TUW393245 UES393245 UOO393245 UYK393245 VIG393245 VSC393245 WBY393245 WLU393245 WVQ393245 I458781 JE458781 TA458781 ACW458781 AMS458781 AWO458781 BGK458781 BQG458781 CAC458781 CJY458781 CTU458781 DDQ458781 DNM458781 DXI458781 EHE458781 ERA458781 FAW458781 FKS458781 FUO458781 GEK458781 GOG458781 GYC458781 HHY458781 HRU458781 IBQ458781 ILM458781 IVI458781 JFE458781 JPA458781 JYW458781 KIS458781 KSO458781 LCK458781 LMG458781 LWC458781 MFY458781 MPU458781 MZQ458781 NJM458781 NTI458781 ODE458781 ONA458781 OWW458781 PGS458781 PQO458781 QAK458781 QKG458781 QUC458781 RDY458781 RNU458781 RXQ458781 SHM458781 SRI458781 TBE458781 TLA458781 TUW458781 UES458781 UOO458781 UYK458781 VIG458781 VSC458781 WBY458781 WLU458781 WVQ458781 I524317 JE524317 TA524317 ACW524317 AMS524317 AWO524317 BGK524317 BQG524317 CAC524317 CJY524317 CTU524317 DDQ524317 DNM524317 DXI524317 EHE524317 ERA524317 FAW524317 FKS524317 FUO524317 GEK524317 GOG524317 GYC524317 HHY524317 HRU524317 IBQ524317 ILM524317 IVI524317 JFE524317 JPA524317 JYW524317 KIS524317 KSO524317 LCK524317 LMG524317 LWC524317 MFY524317 MPU524317 MZQ524317 NJM524317 NTI524317 ODE524317 ONA524317 OWW524317 PGS524317 PQO524317 QAK524317 QKG524317 QUC524317 RDY524317 RNU524317 RXQ524317 SHM524317 SRI524317 TBE524317 TLA524317 TUW524317 UES524317 UOO524317 UYK524317 VIG524317 VSC524317 WBY524317 WLU524317 WVQ524317 I589853 JE589853 TA589853 ACW589853 AMS589853 AWO589853 BGK589853 BQG589853 CAC589853 CJY589853 CTU589853 DDQ589853 DNM589853 DXI589853 EHE589853 ERA589853 FAW589853 FKS589853 FUO589853 GEK589853 GOG589853 GYC589853 HHY589853 HRU589853 IBQ589853 ILM589853 IVI589853 JFE589853 JPA589853 JYW589853 KIS589853 KSO589853 LCK589853 LMG589853 LWC589853 MFY589853 MPU589853 MZQ589853 NJM589853 NTI589853 ODE589853 ONA589853 OWW589853 PGS589853 PQO589853 QAK589853 QKG589853 QUC589853 RDY589853 RNU589853 RXQ589853 SHM589853 SRI589853 TBE589853 TLA589853 TUW589853 UES589853 UOO589853 UYK589853 VIG589853 VSC589853 WBY589853 WLU589853 WVQ589853 I655389 JE655389 TA655389 ACW655389 AMS655389 AWO655389 BGK655389 BQG655389 CAC655389 CJY655389 CTU655389 DDQ655389 DNM655389 DXI655389 EHE655389 ERA655389 FAW655389 FKS655389 FUO655389 GEK655389 GOG655389 GYC655389 HHY655389 HRU655389 IBQ655389 ILM655389 IVI655389 JFE655389 JPA655389 JYW655389 KIS655389 KSO655389 LCK655389 LMG655389 LWC655389 MFY655389 MPU655389 MZQ655389 NJM655389 NTI655389 ODE655389 ONA655389 OWW655389 PGS655389 PQO655389 QAK655389 QKG655389 QUC655389 RDY655389 RNU655389 RXQ655389 SHM655389 SRI655389 TBE655389 TLA655389 TUW655389 UES655389 UOO655389 UYK655389 VIG655389 VSC655389 WBY655389 WLU655389 WVQ655389 I720925 JE720925 TA720925 ACW720925 AMS720925 AWO720925 BGK720925 BQG720925 CAC720925 CJY720925 CTU720925 DDQ720925 DNM720925 DXI720925 EHE720925 ERA720925 FAW720925 FKS720925 FUO720925 GEK720925 GOG720925 GYC720925 HHY720925 HRU720925 IBQ720925 ILM720925 IVI720925 JFE720925 JPA720925 JYW720925 KIS720925 KSO720925 LCK720925 LMG720925 LWC720925 MFY720925 MPU720925 MZQ720925 NJM720925 NTI720925 ODE720925 ONA720925 OWW720925 PGS720925 PQO720925 QAK720925 QKG720925 QUC720925 RDY720925 RNU720925 RXQ720925 SHM720925 SRI720925 TBE720925 TLA720925 TUW720925 UES720925 UOO720925 UYK720925 VIG720925 VSC720925 WBY720925 WLU720925 WVQ720925 I786461 JE786461 TA786461 ACW786461 AMS786461 AWO786461 BGK786461 BQG786461 CAC786461 CJY786461 CTU786461 DDQ786461 DNM786461 DXI786461 EHE786461 ERA786461 FAW786461 FKS786461 FUO786461 GEK786461 GOG786461 GYC786461 HHY786461 HRU786461 IBQ786461 ILM786461 IVI786461 JFE786461 JPA786461 JYW786461 KIS786461 KSO786461 LCK786461 LMG786461 LWC786461 MFY786461 MPU786461 MZQ786461 NJM786461 NTI786461 ODE786461 ONA786461 OWW786461 PGS786461 PQO786461 QAK786461 QKG786461 QUC786461 RDY786461 RNU786461 RXQ786461 SHM786461 SRI786461 TBE786461 TLA786461 TUW786461 UES786461 UOO786461 UYK786461 VIG786461 VSC786461 WBY786461 WLU786461 WVQ786461 I851997 JE851997 TA851997 ACW851997 AMS851997 AWO851997 BGK851997 BQG851997 CAC851997 CJY851997 CTU851997 DDQ851997 DNM851997 DXI851997 EHE851997 ERA851997 FAW851997 FKS851997 FUO851997 GEK851997 GOG851997 GYC851997 HHY851997 HRU851997 IBQ851997 ILM851997 IVI851997 JFE851997 JPA851997 JYW851997 KIS851997 KSO851997 LCK851997 LMG851997 LWC851997 MFY851997 MPU851997 MZQ851997 NJM851997 NTI851997 ODE851997 ONA851997 OWW851997 PGS851997 PQO851997 QAK851997 QKG851997 QUC851997 RDY851997 RNU851997 RXQ851997 SHM851997 SRI851997 TBE851997 TLA851997 TUW851997 UES851997 UOO851997 UYK851997 VIG851997 VSC851997 WBY851997 WLU851997 WVQ851997 I917533 JE917533 TA917533 ACW917533 AMS917533 AWO917533 BGK917533 BQG917533 CAC917533 CJY917533 CTU917533 DDQ917533 DNM917533 DXI917533 EHE917533 ERA917533 FAW917533 FKS917533 FUO917533 GEK917533 GOG917533 GYC917533 HHY917533 HRU917533 IBQ917533 ILM917533 IVI917533 JFE917533 JPA917533 JYW917533 KIS917533 KSO917533 LCK917533 LMG917533 LWC917533 MFY917533 MPU917533 MZQ917533 NJM917533 NTI917533 ODE917533 ONA917533 OWW917533 PGS917533 PQO917533 QAK917533 QKG917533 QUC917533 RDY917533 RNU917533 RXQ917533 SHM917533 SRI917533 TBE917533 TLA917533 TUW917533 UES917533 UOO917533 UYK917533 VIG917533 VSC917533 WBY917533 WLU917533 WVQ917533 I983069 JE983069 TA983069 ACW983069 AMS983069 AWO983069 BGK983069 BQG983069 CAC983069 CJY983069 CTU983069 DDQ983069 DNM983069 DXI983069 EHE983069 ERA983069 FAW983069 FKS983069 FUO983069 GEK983069 GOG983069 GYC983069 HHY983069 HRU983069 IBQ983069 ILM983069 IVI983069 JFE983069 JPA983069 JYW983069 KIS983069 KSO983069 LCK983069 LMG983069 LWC983069 MFY983069 MPU983069 MZQ983069 NJM983069 NTI983069 ODE983069 ONA983069 OWW983069 PGS983069 PQO983069 QAK983069 QKG983069 QUC983069 RDY983069 RNU983069 RXQ983069 SHM983069 SRI983069 TBE983069 TLA983069 TUW983069 UES983069 UOO983069 UYK983069 VIG983069 VSC983069 WBY983069 WLU983069 WVQ983069">
@@ -7043,7 +7177,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7691,16 +7825,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7715,10 +7849,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -7730,10 +7864,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7754,17 +7888,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7809,10 +7943,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -7821,13 +7955,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="B10" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
@@ -7836,14 +7980,26 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -7899,19 +8055,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -7920,21 +8076,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="142"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7946,8 +8102,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7959,8 +8115,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7972,8 +8128,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8009,44 +8165,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -8076,19 +8232,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -8097,13 +8253,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8134,41 +8290,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8219,12 +8375,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -8238,15 +8397,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="86" priority="28" stopIfTrue="1" operator="equal">
@@ -8374,7 +8530,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9022,16 +9178,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9046,10 +9202,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -9061,10 +9217,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9085,17 +9241,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -9140,25 +9296,35 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="B10" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="18" t="s">
         <v>4</v>
       </c>
@@ -9167,13 +9333,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="B11" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
@@ -9182,11 +9358,21 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
       <c r="I12" s="18"/>
@@ -9195,14 +9381,24 @@
       <c r="A13" s="26">
         <v>4</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
+      <c r="B13" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E13" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -9232,19 +9428,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -9253,21 +9449,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="142"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -9279,8 +9475,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -9292,8 +9488,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -9305,8 +9501,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -9342,44 +9538,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9409,19 +9605,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -9430,15 +9626,15 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9469,41 +9665,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9554,12 +9750,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B16:C16"/>
@@ -9571,17 +9772,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9686,7 +9882,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 WVN983050:WVN983053">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983050:WVN983053 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 F10:F13">
       <formula1>"On-hold, On-going, Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983052:WVK983053 IY12:IY13 SU12:SU13 ACQ12:ACQ13 AMM12:AMM13 AWI12:AWI13 BGE12:BGE13 BQA12:BQA13 BZW12:BZW13 CJS12:CJS13 CTO12:CTO13 DDK12:DDK13 DNG12:DNG13 DXC12:DXC13 EGY12:EGY13 EQU12:EQU13 FAQ12:FAQ13 FKM12:FKM13 FUI12:FUI13 GEE12:GEE13 GOA12:GOA13 GXW12:GXW13 HHS12:HHS13 HRO12:HRO13 IBK12:IBK13 ILG12:ILG13 IVC12:IVC13 JEY12:JEY13 JOU12:JOU13 JYQ12:JYQ13 KIM12:KIM13 KSI12:KSI13 LCE12:LCE13 LMA12:LMA13 LVW12:LVW13 MFS12:MFS13 MPO12:MPO13 MZK12:MZK13 NJG12:NJG13 NTC12:NTC13 OCY12:OCY13 OMU12:OMU13 OWQ12:OWQ13 PGM12:PGM13 PQI12:PQI13 QAE12:QAE13 QKA12:QKA13 QTW12:QTW13 RDS12:RDS13 RNO12:RNO13 RXK12:RXK13 SHG12:SHG13 SRC12:SRC13 TAY12:TAY13 TKU12:TKU13 TUQ12:TUQ13 UEM12:UEM13 UOI12:UOI13 UYE12:UYE13 VIA12:VIA13 VRW12:VRW13 WBS12:WBS13 WLO12:WLO13 WVK12:WVK13 C65548:C65549 IY65548:IY65549 SU65548:SU65549 ACQ65548:ACQ65549 AMM65548:AMM65549 AWI65548:AWI65549 BGE65548:BGE65549 BQA65548:BQA65549 BZW65548:BZW65549 CJS65548:CJS65549 CTO65548:CTO65549 DDK65548:DDK65549 DNG65548:DNG65549 DXC65548:DXC65549 EGY65548:EGY65549 EQU65548:EQU65549 FAQ65548:FAQ65549 FKM65548:FKM65549 FUI65548:FUI65549 GEE65548:GEE65549 GOA65548:GOA65549 GXW65548:GXW65549 HHS65548:HHS65549 HRO65548:HRO65549 IBK65548:IBK65549 ILG65548:ILG65549 IVC65548:IVC65549 JEY65548:JEY65549 JOU65548:JOU65549 JYQ65548:JYQ65549 KIM65548:KIM65549 KSI65548:KSI65549 LCE65548:LCE65549 LMA65548:LMA65549 LVW65548:LVW65549 MFS65548:MFS65549 MPO65548:MPO65549 MZK65548:MZK65549 NJG65548:NJG65549 NTC65548:NTC65549 OCY65548:OCY65549 OMU65548:OMU65549 OWQ65548:OWQ65549 PGM65548:PGM65549 PQI65548:PQI65549 QAE65548:QAE65549 QKA65548:QKA65549 QTW65548:QTW65549 RDS65548:RDS65549 RNO65548:RNO65549 RXK65548:RXK65549 SHG65548:SHG65549 SRC65548:SRC65549 TAY65548:TAY65549 TKU65548:TKU65549 TUQ65548:TUQ65549 UEM65548:UEM65549 UOI65548:UOI65549 UYE65548:UYE65549 VIA65548:VIA65549 VRW65548:VRW65549 WBS65548:WBS65549 WLO65548:WLO65549 WVK65548:WVK65549 C131084:C131085 IY131084:IY131085 SU131084:SU131085 ACQ131084:ACQ131085 AMM131084:AMM131085 AWI131084:AWI131085 BGE131084:BGE131085 BQA131084:BQA131085 BZW131084:BZW131085 CJS131084:CJS131085 CTO131084:CTO131085 DDK131084:DDK131085 DNG131084:DNG131085 DXC131084:DXC131085 EGY131084:EGY131085 EQU131084:EQU131085 FAQ131084:FAQ131085 FKM131084:FKM131085 FUI131084:FUI131085 GEE131084:GEE131085 GOA131084:GOA131085 GXW131084:GXW131085 HHS131084:HHS131085 HRO131084:HRO131085 IBK131084:IBK131085 ILG131084:ILG131085 IVC131084:IVC131085 JEY131084:JEY131085 JOU131084:JOU131085 JYQ131084:JYQ131085 KIM131084:KIM131085 KSI131084:KSI131085 LCE131084:LCE131085 LMA131084:LMA131085 LVW131084:LVW131085 MFS131084:MFS131085 MPO131084:MPO131085 MZK131084:MZK131085 NJG131084:NJG131085 NTC131084:NTC131085 OCY131084:OCY131085 OMU131084:OMU131085 OWQ131084:OWQ131085 PGM131084:PGM131085 PQI131084:PQI131085 QAE131084:QAE131085 QKA131084:QKA131085 QTW131084:QTW131085 RDS131084:RDS131085 RNO131084:RNO131085 RXK131084:RXK131085 SHG131084:SHG131085 SRC131084:SRC131085 TAY131084:TAY131085 TKU131084:TKU131085 TUQ131084:TUQ131085 UEM131084:UEM131085 UOI131084:UOI131085 UYE131084:UYE131085 VIA131084:VIA131085 VRW131084:VRW131085 WBS131084:WBS131085 WLO131084:WLO131085 WVK131084:WVK131085 C196620:C196621 IY196620:IY196621 SU196620:SU196621 ACQ196620:ACQ196621 AMM196620:AMM196621 AWI196620:AWI196621 BGE196620:BGE196621 BQA196620:BQA196621 BZW196620:BZW196621 CJS196620:CJS196621 CTO196620:CTO196621 DDK196620:DDK196621 DNG196620:DNG196621 DXC196620:DXC196621 EGY196620:EGY196621 EQU196620:EQU196621 FAQ196620:FAQ196621 FKM196620:FKM196621 FUI196620:FUI196621 GEE196620:GEE196621 GOA196620:GOA196621 GXW196620:GXW196621 HHS196620:HHS196621 HRO196620:HRO196621 IBK196620:IBK196621 ILG196620:ILG196621 IVC196620:IVC196621 JEY196620:JEY196621 JOU196620:JOU196621 JYQ196620:JYQ196621 KIM196620:KIM196621 KSI196620:KSI196621 LCE196620:LCE196621 LMA196620:LMA196621 LVW196620:LVW196621 MFS196620:MFS196621 MPO196620:MPO196621 MZK196620:MZK196621 NJG196620:NJG196621 NTC196620:NTC196621 OCY196620:OCY196621 OMU196620:OMU196621 OWQ196620:OWQ196621 PGM196620:PGM196621 PQI196620:PQI196621 QAE196620:QAE196621 QKA196620:QKA196621 QTW196620:QTW196621 RDS196620:RDS196621 RNO196620:RNO196621 RXK196620:RXK196621 SHG196620:SHG196621 SRC196620:SRC196621 TAY196620:TAY196621 TKU196620:TKU196621 TUQ196620:TUQ196621 UEM196620:UEM196621 UOI196620:UOI196621 UYE196620:UYE196621 VIA196620:VIA196621 VRW196620:VRW196621 WBS196620:WBS196621 WLO196620:WLO196621 WVK196620:WVK196621 C262156:C262157 IY262156:IY262157 SU262156:SU262157 ACQ262156:ACQ262157 AMM262156:AMM262157 AWI262156:AWI262157 BGE262156:BGE262157 BQA262156:BQA262157 BZW262156:BZW262157 CJS262156:CJS262157 CTO262156:CTO262157 DDK262156:DDK262157 DNG262156:DNG262157 DXC262156:DXC262157 EGY262156:EGY262157 EQU262156:EQU262157 FAQ262156:FAQ262157 FKM262156:FKM262157 FUI262156:FUI262157 GEE262156:GEE262157 GOA262156:GOA262157 GXW262156:GXW262157 HHS262156:HHS262157 HRO262156:HRO262157 IBK262156:IBK262157 ILG262156:ILG262157 IVC262156:IVC262157 JEY262156:JEY262157 JOU262156:JOU262157 JYQ262156:JYQ262157 KIM262156:KIM262157 KSI262156:KSI262157 LCE262156:LCE262157 LMA262156:LMA262157 LVW262156:LVW262157 MFS262156:MFS262157 MPO262156:MPO262157 MZK262156:MZK262157 NJG262156:NJG262157 NTC262156:NTC262157 OCY262156:OCY262157 OMU262156:OMU262157 OWQ262156:OWQ262157 PGM262156:PGM262157 PQI262156:PQI262157 QAE262156:QAE262157 QKA262156:QKA262157 QTW262156:QTW262157 RDS262156:RDS262157 RNO262156:RNO262157 RXK262156:RXK262157 SHG262156:SHG262157 SRC262156:SRC262157 TAY262156:TAY262157 TKU262156:TKU262157 TUQ262156:TUQ262157 UEM262156:UEM262157 UOI262156:UOI262157 UYE262156:UYE262157 VIA262156:VIA262157 VRW262156:VRW262157 WBS262156:WBS262157 WLO262156:WLO262157 WVK262156:WVK262157 C327692:C327693 IY327692:IY327693 SU327692:SU327693 ACQ327692:ACQ327693 AMM327692:AMM327693 AWI327692:AWI327693 BGE327692:BGE327693 BQA327692:BQA327693 BZW327692:BZW327693 CJS327692:CJS327693 CTO327692:CTO327693 DDK327692:DDK327693 DNG327692:DNG327693 DXC327692:DXC327693 EGY327692:EGY327693 EQU327692:EQU327693 FAQ327692:FAQ327693 FKM327692:FKM327693 FUI327692:FUI327693 GEE327692:GEE327693 GOA327692:GOA327693 GXW327692:GXW327693 HHS327692:HHS327693 HRO327692:HRO327693 IBK327692:IBK327693 ILG327692:ILG327693 IVC327692:IVC327693 JEY327692:JEY327693 JOU327692:JOU327693 JYQ327692:JYQ327693 KIM327692:KIM327693 KSI327692:KSI327693 LCE327692:LCE327693 LMA327692:LMA327693 LVW327692:LVW327693 MFS327692:MFS327693 MPO327692:MPO327693 MZK327692:MZK327693 NJG327692:NJG327693 NTC327692:NTC327693 OCY327692:OCY327693 OMU327692:OMU327693 OWQ327692:OWQ327693 PGM327692:PGM327693 PQI327692:PQI327693 QAE327692:QAE327693 QKA327692:QKA327693 QTW327692:QTW327693 RDS327692:RDS327693 RNO327692:RNO327693 RXK327692:RXK327693 SHG327692:SHG327693 SRC327692:SRC327693 TAY327692:TAY327693 TKU327692:TKU327693 TUQ327692:TUQ327693 UEM327692:UEM327693 UOI327692:UOI327693 UYE327692:UYE327693 VIA327692:VIA327693 VRW327692:VRW327693 WBS327692:WBS327693 WLO327692:WLO327693 WVK327692:WVK327693 C393228:C393229 IY393228:IY393229 SU393228:SU393229 ACQ393228:ACQ393229 AMM393228:AMM393229 AWI393228:AWI393229 BGE393228:BGE393229 BQA393228:BQA393229 BZW393228:BZW393229 CJS393228:CJS393229 CTO393228:CTO393229 DDK393228:DDK393229 DNG393228:DNG393229 DXC393228:DXC393229 EGY393228:EGY393229 EQU393228:EQU393229 FAQ393228:FAQ393229 FKM393228:FKM393229 FUI393228:FUI393229 GEE393228:GEE393229 GOA393228:GOA393229 GXW393228:GXW393229 HHS393228:HHS393229 HRO393228:HRO393229 IBK393228:IBK393229 ILG393228:ILG393229 IVC393228:IVC393229 JEY393228:JEY393229 JOU393228:JOU393229 JYQ393228:JYQ393229 KIM393228:KIM393229 KSI393228:KSI393229 LCE393228:LCE393229 LMA393228:LMA393229 LVW393228:LVW393229 MFS393228:MFS393229 MPO393228:MPO393229 MZK393228:MZK393229 NJG393228:NJG393229 NTC393228:NTC393229 OCY393228:OCY393229 OMU393228:OMU393229 OWQ393228:OWQ393229 PGM393228:PGM393229 PQI393228:PQI393229 QAE393228:QAE393229 QKA393228:QKA393229 QTW393228:QTW393229 RDS393228:RDS393229 RNO393228:RNO393229 RXK393228:RXK393229 SHG393228:SHG393229 SRC393228:SRC393229 TAY393228:TAY393229 TKU393228:TKU393229 TUQ393228:TUQ393229 UEM393228:UEM393229 UOI393228:UOI393229 UYE393228:UYE393229 VIA393228:VIA393229 VRW393228:VRW393229 WBS393228:WBS393229 WLO393228:WLO393229 WVK393228:WVK393229 C458764:C458765 IY458764:IY458765 SU458764:SU458765 ACQ458764:ACQ458765 AMM458764:AMM458765 AWI458764:AWI458765 BGE458764:BGE458765 BQA458764:BQA458765 BZW458764:BZW458765 CJS458764:CJS458765 CTO458764:CTO458765 DDK458764:DDK458765 DNG458764:DNG458765 DXC458764:DXC458765 EGY458764:EGY458765 EQU458764:EQU458765 FAQ458764:FAQ458765 FKM458764:FKM458765 FUI458764:FUI458765 GEE458764:GEE458765 GOA458764:GOA458765 GXW458764:GXW458765 HHS458764:HHS458765 HRO458764:HRO458765 IBK458764:IBK458765 ILG458764:ILG458765 IVC458764:IVC458765 JEY458764:JEY458765 JOU458764:JOU458765 JYQ458764:JYQ458765 KIM458764:KIM458765 KSI458764:KSI458765 LCE458764:LCE458765 LMA458764:LMA458765 LVW458764:LVW458765 MFS458764:MFS458765 MPO458764:MPO458765 MZK458764:MZK458765 NJG458764:NJG458765 NTC458764:NTC458765 OCY458764:OCY458765 OMU458764:OMU458765 OWQ458764:OWQ458765 PGM458764:PGM458765 PQI458764:PQI458765 QAE458764:QAE458765 QKA458764:QKA458765 QTW458764:QTW458765 RDS458764:RDS458765 RNO458764:RNO458765 RXK458764:RXK458765 SHG458764:SHG458765 SRC458764:SRC458765 TAY458764:TAY458765 TKU458764:TKU458765 TUQ458764:TUQ458765 UEM458764:UEM458765 UOI458764:UOI458765 UYE458764:UYE458765 VIA458764:VIA458765 VRW458764:VRW458765 WBS458764:WBS458765 WLO458764:WLO458765 WVK458764:WVK458765 C524300:C524301 IY524300:IY524301 SU524300:SU524301 ACQ524300:ACQ524301 AMM524300:AMM524301 AWI524300:AWI524301 BGE524300:BGE524301 BQA524300:BQA524301 BZW524300:BZW524301 CJS524300:CJS524301 CTO524300:CTO524301 DDK524300:DDK524301 DNG524300:DNG524301 DXC524300:DXC524301 EGY524300:EGY524301 EQU524300:EQU524301 FAQ524300:FAQ524301 FKM524300:FKM524301 FUI524300:FUI524301 GEE524300:GEE524301 GOA524300:GOA524301 GXW524300:GXW524301 HHS524300:HHS524301 HRO524300:HRO524301 IBK524300:IBK524301 ILG524300:ILG524301 IVC524300:IVC524301 JEY524300:JEY524301 JOU524300:JOU524301 JYQ524300:JYQ524301 KIM524300:KIM524301 KSI524300:KSI524301 LCE524300:LCE524301 LMA524300:LMA524301 LVW524300:LVW524301 MFS524300:MFS524301 MPO524300:MPO524301 MZK524300:MZK524301 NJG524300:NJG524301 NTC524300:NTC524301 OCY524300:OCY524301 OMU524300:OMU524301 OWQ524300:OWQ524301 PGM524300:PGM524301 PQI524300:PQI524301 QAE524300:QAE524301 QKA524300:QKA524301 QTW524300:QTW524301 RDS524300:RDS524301 RNO524300:RNO524301 RXK524300:RXK524301 SHG524300:SHG524301 SRC524300:SRC524301 TAY524300:TAY524301 TKU524300:TKU524301 TUQ524300:TUQ524301 UEM524300:UEM524301 UOI524300:UOI524301 UYE524300:UYE524301 VIA524300:VIA524301 VRW524300:VRW524301 WBS524300:WBS524301 WLO524300:WLO524301 WVK524300:WVK524301 C589836:C589837 IY589836:IY589837 SU589836:SU589837 ACQ589836:ACQ589837 AMM589836:AMM589837 AWI589836:AWI589837 BGE589836:BGE589837 BQA589836:BQA589837 BZW589836:BZW589837 CJS589836:CJS589837 CTO589836:CTO589837 DDK589836:DDK589837 DNG589836:DNG589837 DXC589836:DXC589837 EGY589836:EGY589837 EQU589836:EQU589837 FAQ589836:FAQ589837 FKM589836:FKM589837 FUI589836:FUI589837 GEE589836:GEE589837 GOA589836:GOA589837 GXW589836:GXW589837 HHS589836:HHS589837 HRO589836:HRO589837 IBK589836:IBK589837 ILG589836:ILG589837 IVC589836:IVC589837 JEY589836:JEY589837 JOU589836:JOU589837 JYQ589836:JYQ589837 KIM589836:KIM589837 KSI589836:KSI589837 LCE589836:LCE589837 LMA589836:LMA589837 LVW589836:LVW589837 MFS589836:MFS589837 MPO589836:MPO589837 MZK589836:MZK589837 NJG589836:NJG589837 NTC589836:NTC589837 OCY589836:OCY589837 OMU589836:OMU589837 OWQ589836:OWQ589837 PGM589836:PGM589837 PQI589836:PQI589837 QAE589836:QAE589837 QKA589836:QKA589837 QTW589836:QTW589837 RDS589836:RDS589837 RNO589836:RNO589837 RXK589836:RXK589837 SHG589836:SHG589837 SRC589836:SRC589837 TAY589836:TAY589837 TKU589836:TKU589837 TUQ589836:TUQ589837 UEM589836:UEM589837 UOI589836:UOI589837 UYE589836:UYE589837 VIA589836:VIA589837 VRW589836:VRW589837 WBS589836:WBS589837 WLO589836:WLO589837 WVK589836:WVK589837 C655372:C655373 IY655372:IY655373 SU655372:SU655373 ACQ655372:ACQ655373 AMM655372:AMM655373 AWI655372:AWI655373 BGE655372:BGE655373 BQA655372:BQA655373 BZW655372:BZW655373 CJS655372:CJS655373 CTO655372:CTO655373 DDK655372:DDK655373 DNG655372:DNG655373 DXC655372:DXC655373 EGY655372:EGY655373 EQU655372:EQU655373 FAQ655372:FAQ655373 FKM655372:FKM655373 FUI655372:FUI655373 GEE655372:GEE655373 GOA655372:GOA655373 GXW655372:GXW655373 HHS655372:HHS655373 HRO655372:HRO655373 IBK655372:IBK655373 ILG655372:ILG655373 IVC655372:IVC655373 JEY655372:JEY655373 JOU655372:JOU655373 JYQ655372:JYQ655373 KIM655372:KIM655373 KSI655372:KSI655373 LCE655372:LCE655373 LMA655372:LMA655373 LVW655372:LVW655373 MFS655372:MFS655373 MPO655372:MPO655373 MZK655372:MZK655373 NJG655372:NJG655373 NTC655372:NTC655373 OCY655372:OCY655373 OMU655372:OMU655373 OWQ655372:OWQ655373 PGM655372:PGM655373 PQI655372:PQI655373 QAE655372:QAE655373 QKA655372:QKA655373 QTW655372:QTW655373 RDS655372:RDS655373 RNO655372:RNO655373 RXK655372:RXK655373 SHG655372:SHG655373 SRC655372:SRC655373 TAY655372:TAY655373 TKU655372:TKU655373 TUQ655372:TUQ655373 UEM655372:UEM655373 UOI655372:UOI655373 UYE655372:UYE655373 VIA655372:VIA655373 VRW655372:VRW655373 WBS655372:WBS655373 WLO655372:WLO655373 WVK655372:WVK655373 C720908:C720909 IY720908:IY720909 SU720908:SU720909 ACQ720908:ACQ720909 AMM720908:AMM720909 AWI720908:AWI720909 BGE720908:BGE720909 BQA720908:BQA720909 BZW720908:BZW720909 CJS720908:CJS720909 CTO720908:CTO720909 DDK720908:DDK720909 DNG720908:DNG720909 DXC720908:DXC720909 EGY720908:EGY720909 EQU720908:EQU720909 FAQ720908:FAQ720909 FKM720908:FKM720909 FUI720908:FUI720909 GEE720908:GEE720909 GOA720908:GOA720909 GXW720908:GXW720909 HHS720908:HHS720909 HRO720908:HRO720909 IBK720908:IBK720909 ILG720908:ILG720909 IVC720908:IVC720909 JEY720908:JEY720909 JOU720908:JOU720909 JYQ720908:JYQ720909 KIM720908:KIM720909 KSI720908:KSI720909 LCE720908:LCE720909 LMA720908:LMA720909 LVW720908:LVW720909 MFS720908:MFS720909 MPO720908:MPO720909 MZK720908:MZK720909 NJG720908:NJG720909 NTC720908:NTC720909 OCY720908:OCY720909 OMU720908:OMU720909 OWQ720908:OWQ720909 PGM720908:PGM720909 PQI720908:PQI720909 QAE720908:QAE720909 QKA720908:QKA720909 QTW720908:QTW720909 RDS720908:RDS720909 RNO720908:RNO720909 RXK720908:RXK720909 SHG720908:SHG720909 SRC720908:SRC720909 TAY720908:TAY720909 TKU720908:TKU720909 TUQ720908:TUQ720909 UEM720908:UEM720909 UOI720908:UOI720909 UYE720908:UYE720909 VIA720908:VIA720909 VRW720908:VRW720909 WBS720908:WBS720909 WLO720908:WLO720909 WVK720908:WVK720909 C786444:C786445 IY786444:IY786445 SU786444:SU786445 ACQ786444:ACQ786445 AMM786444:AMM786445 AWI786444:AWI786445 BGE786444:BGE786445 BQA786444:BQA786445 BZW786444:BZW786445 CJS786444:CJS786445 CTO786444:CTO786445 DDK786444:DDK786445 DNG786444:DNG786445 DXC786444:DXC786445 EGY786444:EGY786445 EQU786444:EQU786445 FAQ786444:FAQ786445 FKM786444:FKM786445 FUI786444:FUI786445 GEE786444:GEE786445 GOA786444:GOA786445 GXW786444:GXW786445 HHS786444:HHS786445 HRO786444:HRO786445 IBK786444:IBK786445 ILG786444:ILG786445 IVC786444:IVC786445 JEY786444:JEY786445 JOU786444:JOU786445 JYQ786444:JYQ786445 KIM786444:KIM786445 KSI786444:KSI786445 LCE786444:LCE786445 LMA786444:LMA786445 LVW786444:LVW786445 MFS786444:MFS786445 MPO786444:MPO786445 MZK786444:MZK786445 NJG786444:NJG786445 NTC786444:NTC786445 OCY786444:OCY786445 OMU786444:OMU786445 OWQ786444:OWQ786445 PGM786444:PGM786445 PQI786444:PQI786445 QAE786444:QAE786445 QKA786444:QKA786445 QTW786444:QTW786445 RDS786444:RDS786445 RNO786444:RNO786445 RXK786444:RXK786445 SHG786444:SHG786445 SRC786444:SRC786445 TAY786444:TAY786445 TKU786444:TKU786445 TUQ786444:TUQ786445 UEM786444:UEM786445 UOI786444:UOI786445 UYE786444:UYE786445 VIA786444:VIA786445 VRW786444:VRW786445 WBS786444:WBS786445 WLO786444:WLO786445 WVK786444:WVK786445 C851980:C851981 IY851980:IY851981 SU851980:SU851981 ACQ851980:ACQ851981 AMM851980:AMM851981 AWI851980:AWI851981 BGE851980:BGE851981 BQA851980:BQA851981 BZW851980:BZW851981 CJS851980:CJS851981 CTO851980:CTO851981 DDK851980:DDK851981 DNG851980:DNG851981 DXC851980:DXC851981 EGY851980:EGY851981 EQU851980:EQU851981 FAQ851980:FAQ851981 FKM851980:FKM851981 FUI851980:FUI851981 GEE851980:GEE851981 GOA851980:GOA851981 GXW851980:GXW851981 HHS851980:HHS851981 HRO851980:HRO851981 IBK851980:IBK851981 ILG851980:ILG851981 IVC851980:IVC851981 JEY851980:JEY851981 JOU851980:JOU851981 JYQ851980:JYQ851981 KIM851980:KIM851981 KSI851980:KSI851981 LCE851980:LCE851981 LMA851980:LMA851981 LVW851980:LVW851981 MFS851980:MFS851981 MPO851980:MPO851981 MZK851980:MZK851981 NJG851980:NJG851981 NTC851980:NTC851981 OCY851980:OCY851981 OMU851980:OMU851981 OWQ851980:OWQ851981 PGM851980:PGM851981 PQI851980:PQI851981 QAE851980:QAE851981 QKA851980:QKA851981 QTW851980:QTW851981 RDS851980:RDS851981 RNO851980:RNO851981 RXK851980:RXK851981 SHG851980:SHG851981 SRC851980:SRC851981 TAY851980:TAY851981 TKU851980:TKU851981 TUQ851980:TUQ851981 UEM851980:UEM851981 UOI851980:UOI851981 UYE851980:UYE851981 VIA851980:VIA851981 VRW851980:VRW851981 WBS851980:WBS851981 WLO851980:WLO851981 WVK851980:WVK851981 C917516:C917517 IY917516:IY917517 SU917516:SU917517 ACQ917516:ACQ917517 AMM917516:AMM917517 AWI917516:AWI917517 BGE917516:BGE917517 BQA917516:BQA917517 BZW917516:BZW917517 CJS917516:CJS917517 CTO917516:CTO917517 DDK917516:DDK917517 DNG917516:DNG917517 DXC917516:DXC917517 EGY917516:EGY917517 EQU917516:EQU917517 FAQ917516:FAQ917517 FKM917516:FKM917517 FUI917516:FUI917517 GEE917516:GEE917517 GOA917516:GOA917517 GXW917516:GXW917517 HHS917516:HHS917517 HRO917516:HRO917517 IBK917516:IBK917517 ILG917516:ILG917517 IVC917516:IVC917517 JEY917516:JEY917517 JOU917516:JOU917517 JYQ917516:JYQ917517 KIM917516:KIM917517 KSI917516:KSI917517 LCE917516:LCE917517 LMA917516:LMA917517 LVW917516:LVW917517 MFS917516:MFS917517 MPO917516:MPO917517 MZK917516:MZK917517 NJG917516:NJG917517 NTC917516:NTC917517 OCY917516:OCY917517 OMU917516:OMU917517 OWQ917516:OWQ917517 PGM917516:PGM917517 PQI917516:PQI917517 QAE917516:QAE917517 QKA917516:QKA917517 QTW917516:QTW917517 RDS917516:RDS917517 RNO917516:RNO917517 RXK917516:RXK917517 SHG917516:SHG917517 SRC917516:SRC917517 TAY917516:TAY917517 TKU917516:TKU917517 TUQ917516:TUQ917517 UEM917516:UEM917517 UOI917516:UOI917517 UYE917516:UYE917517 VIA917516:VIA917517 VRW917516:VRW917517 WBS917516:WBS917517 WLO917516:WLO917517 WVK917516:WVK917517 C983052:C983053 IY983052:IY983053 SU983052:SU983053 ACQ983052:ACQ983053 AMM983052:AMM983053 AWI983052:AWI983053 BGE983052:BGE983053 BQA983052:BQA983053 BZW983052:BZW983053 CJS983052:CJS983053 CTO983052:CTO983053 DDK983052:DDK983053 DNG983052:DNG983053 DXC983052:DXC983053 EGY983052:EGY983053 EQU983052:EQU983053 FAQ983052:FAQ983053 FKM983052:FKM983053 FUI983052:FUI983053 GEE983052:GEE983053 GOA983052:GOA983053 GXW983052:GXW983053 HHS983052:HHS983053 HRO983052:HRO983053 IBK983052:IBK983053 ILG983052:ILG983053 IVC983052:IVC983053 JEY983052:JEY983053 JOU983052:JOU983053 JYQ983052:JYQ983053 KIM983052:KIM983053 KSI983052:KSI983053 LCE983052:LCE983053 LMA983052:LMA983053 LVW983052:LVW983053 MFS983052:MFS983053 MPO983052:MPO983053 MZK983052:MZK983053 NJG983052:NJG983053 NTC983052:NTC983053 OCY983052:OCY983053 OMU983052:OMU983053 OWQ983052:OWQ983053 PGM983052:PGM983053 PQI983052:PQI983053 QAE983052:QAE983053 QKA983052:QKA983053 QTW983052:QTW983053 RDS983052:RDS983053 RNO983052:RNO983053 RXK983052:RXK983053 SHG983052:SHG983053 SRC983052:SRC983053 TAY983052:TAY983053 TKU983052:TKU983053 TUQ983052:TUQ983053 UEM983052:UEM983053 UOI983052:UOI983053 UYE983052:UYE983053 VIA983052:VIA983053 VRW983052:VRW983053 WBS983052:WBS983053 WLO983052:WLO983053">
@@ -9714,8 +9910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10363,16 +10559,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10387,10 +10583,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="149"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -10402,10 +10598,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="149"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10426,17 +10622,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10481,25 +10677,35 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="B10" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="18" t="s">
         <v>5</v>
       </c>
@@ -10508,13 +10714,13 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10571,19 +10777,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -10592,21 +10798,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="142"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10618,8 +10824,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10631,8 +10837,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10644,8 +10850,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10681,44 +10887,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10748,19 +10954,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -10769,13 +10975,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10806,41 +11012,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10891,12 +11097,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10910,15 +11119,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
